--- a/code_generate_figures/data/ranks_all_FragPipe_DDA_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_FragPipe_DDA_ensemble_topk.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">top2</t>
   </si>
   <si>
-    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">2||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top2</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">top3</t>
   </si>
   <si>
-    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">3||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top3</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">top4</t>
   </si>
   <si>
-    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv</t>
+    <t xml:space="preserve">4||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top4</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">top5</t>
   </si>
   <si>
-    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">5||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top5</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">top6</t>
   </si>
   <si>
-    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv</t>
+    <t xml:space="preserve">6||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top6</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">top7</t>
   </si>
   <si>
-    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">7||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top7</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">top8</t>
   </si>
   <si>
-    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv</t>
+    <t xml:space="preserve">8||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top8</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">top9</t>
   </si>
   <si>
-    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">9||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top9</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">top10</t>
   </si>
   <si>
-    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">10||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top10</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">top11</t>
   </si>
   <si>
-    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv</t>
+    <t xml:space="preserve">11||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top11</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">top12</t>
   </si>
   <si>
-    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv</t>
+    <t xml:space="preserve">12||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top12</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">top13</t>
   </si>
   <si>
-    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv</t>
+    <t xml:space="preserve">13||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top13</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">top14</t>
   </si>
   <si>
-    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv</t>
+    <t xml:space="preserve">14||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top14</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">top15</t>
   </si>
   <si>
-    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv</t>
+    <t xml:space="preserve">15||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top15</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">top16</t>
   </si>
   <si>
-    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_LFQ_MinDet_.csv</t>
+    <t xml:space="preserve">16||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_Rlr.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top16</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">top17</t>
   </si>
   <si>
-    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_missForest_.csv</t>
+    <t xml:space="preserve">17||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top17</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">top18</t>
   </si>
   <si>
-    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_QRILC_.csv</t>
+    <t xml:space="preserve">18||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_LFQ_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top18</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">top19</t>
   </si>
   <si>
-    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_top0_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_LFQ_MinDet_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_QRILC_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_proDA_FragPipe_LFQ_Impseq_.csv</t>
+    <t xml:space="preserve">19||D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_bpca_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_SeqKNN_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_Impseqrob_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_SeqKNN_lossf.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_missForest_Rlr.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_ROTS_FragPipe_dlfq_missForest_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_DEqMS_FragPipe_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DDA/FragPipe/HYEtims777_LFQ/HYEtims777_LFQ_limma_FragPipe_dlfq_bpca_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||top19</t>
@@ -959,70 +959,70 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.710000454545455</v>
+        <v>0.711570245454546</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7100005</v>
+        <v>0.7056705</v>
       </c>
       <c r="J2" t="n">
+        <v>38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.783203022727273</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.779684</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
         <v>32</v>
       </c>
-      <c r="K2" t="n">
-        <v>39</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.781838659090909</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7815889</v>
-      </c>
-      <c r="N2" t="n">
-        <v>40</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.813201613636364</v>
+        <v>0.811519704545455</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8132016</v>
+        <v>0.8127653</v>
       </c>
       <c r="R2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S2" t="n">
         <v>32</v>
       </c>
-      <c r="S2" t="n">
-        <v>46</v>
-      </c>
       <c r="T2" t="n">
-        <v>0.778241090909091</v>
+        <v>0.773264922727273</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8150532</v>
+        <v>0.82079455</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>0.725237574545455</v>
+        <v>0.719420203181818</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8043525</v>
+        <v>0.8109124</v>
       </c>
       <c r="Z2" t="n">
         <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>31.8</v>
+        <v>24.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>41</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="3">
@@ -1048,70 +1048,70 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.732507436363636</v>
+        <v>0.718438186363636</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7325074</v>
+        <v>0.7213801</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="L3" t="n">
-        <v>0.799491454545455</v>
+        <v>0.777031259090909</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8019102</v>
+        <v>0.7846953</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="P3" t="n">
-        <v>0.818326936363636</v>
+        <v>0.79278865</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8286369</v>
+        <v>0.8083667</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="T3" t="n">
-        <v>0.614117286363636</v>
+        <v>0.758141959090909</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5</v>
+        <v>0.827396</v>
       </c>
       <c r="V3" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="W3" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>0.249268044545455</v>
+        <v>0.653105818636364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.7693248</v>
       </c>
       <c r="Z3" t="n">
         <v>73</v>
       </c>
       <c r="AA3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>30.8</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.6</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="4">
@@ -1137,70 +1137,70 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7349511</v>
+        <v>0.718816468181818</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7349511</v>
+        <v>0.7210029</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>0.799640327272727</v>
+        <v>0.777781672727273</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7996403</v>
+        <v>0.7862826</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>0.818584459090909</v>
+        <v>0.794168286363636</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8255302</v>
+        <v>0.81045475</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="T4" t="n">
-        <v>0.623527209090909</v>
+        <v>0.758804240909091</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.82388135</v>
       </c>
       <c r="V4" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="W4" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="X4" t="n">
-        <v>0.271083442272727</v>
+        <v>0.664881235454545</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.77146575</v>
       </c>
       <c r="Z4" t="n">
         <v>72</v>
       </c>
       <c r="AA4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="n">
-        <v>29.6</v>
+        <v>45.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>32.2</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="5">
@@ -1226,70 +1226,70 @@
         <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>0.705780245454545</v>
+        <v>0.709126340909091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7057802</v>
+        <v>0.70638215</v>
       </c>
       <c r="J5" t="n">
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="n">
-        <v>0.77706615</v>
+        <v>0.782865163636364</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7776639</v>
+        <v>0.77903385</v>
       </c>
       <c r="N5" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="P5" t="n">
-        <v>0.809038768181818</v>
+        <v>0.812582881818182</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8090388</v>
+        <v>0.81413655</v>
       </c>
       <c r="R5" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>0.775837695454545</v>
+        <v>0.765692022727273</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8175894</v>
+        <v>0.80548655</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
-        <v>0.726188123636364</v>
+        <v>0.729178442727273</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8043525</v>
+        <v>0.81722615</v>
       </c>
       <c r="Z5" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>40.8</v>
+        <v>26.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="6">
@@ -1315,58 +1315,58 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.732524977272727</v>
+        <v>0.715537959090909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.732525</v>
+        <v>0.7139157</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L6" t="n">
-        <v>0.798344518181818</v>
+        <v>0.773723204545455</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8006551</v>
+        <v>0.7835548</v>
       </c>
       <c r="N6" t="n">
+        <v>51</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.789247718181818</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.80610095</v>
+      </c>
+      <c r="R6" t="n">
+        <v>65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>50</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.757501531818182</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.82879735</v>
+      </c>
+      <c r="V6" t="n">
+        <v>39</v>
+      </c>
+      <c r="W6" t="n">
         <v>3</v>
       </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.817273013636364</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.8267971</v>
-      </c>
-      <c r="R6" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.614067936363636</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>74</v>
-      </c>
-      <c r="W6" t="n">
-        <v>74</v>
-      </c>
       <c r="X6" t="n">
-        <v>0.249090130909091</v>
+        <v>0.642702807727273</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.77032745</v>
       </c>
       <c r="Z6" t="n">
         <v>74</v>
@@ -1375,10 +1375,10 @@
         <v>74</v>
       </c>
       <c r="AB6" t="n">
-        <v>32.4</v>
+        <v>50.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>31.6</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="7">
@@ -1404,70 +1404,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.713878463636364</v>
+        <v>0.7141614</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7181275</v>
+        <v>0.71326865</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L7" t="n">
-        <v>0.781616736363636</v>
+        <v>0.780086372727273</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7918001</v>
+        <v>0.77629985</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="P7" t="n">
-        <v>0.810211540909091</v>
+        <v>0.804363295454545</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8106987</v>
+        <v>0.8115611</v>
       </c>
       <c r="R7" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="S7" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="T7" t="n">
-        <v>0.765575422727273</v>
+        <v>0.7658862</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8105701</v>
+        <v>0.82243435</v>
       </c>
       <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
         <v>21</v>
       </c>
-      <c r="W7" t="n">
-        <v>19</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.684611409545455</v>
+        <v>0.694972153636364</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8009695</v>
+        <v>0.8058349</v>
       </c>
       <c r="Z7" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AA7" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB7" t="n">
-        <v>39.4</v>
+        <v>33.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>34.6</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="8">
@@ -1493,70 +1493,70 @@
         <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>0.705554640909091</v>
+        <v>0.711063695454546</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7055546</v>
+        <v>0.70539505</v>
       </c>
       <c r="J8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" t="n">
-        <v>0.776620690909091</v>
+        <v>0.784152745454545</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7770079</v>
+        <v>0.7776376</v>
       </c>
       <c r="N8" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P8" t="n">
-        <v>0.808671940909091</v>
+        <v>0.813934122727273</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8086719</v>
+        <v>0.81518995</v>
       </c>
       <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>28</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.764357286363636</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.7991048</v>
+      </c>
+      <c r="V8" t="n">
+        <v>20</v>
+      </c>
+      <c r="W8" t="n">
+        <v>27</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.730897926363636</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.8127611</v>
+      </c>
+      <c r="Z8" t="n">
         <v>50</v>
       </c>
-      <c r="S8" t="n">
-        <v>61</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.775424009090909</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.815872</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AA8" t="n">
         <v>4</v>
       </c>
-      <c r="X8" t="n">
-        <v>0.726800279545455</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.8047359</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>60</v>
-      </c>
       <c r="AB8" t="n">
-        <v>41.6</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1582,70 +1582,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.729310177272727</v>
+        <v>0.715017336363636</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7293102</v>
+        <v>0.7157441</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L9" t="n">
-        <v>0.796524527272727</v>
+        <v>0.773278145454545</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7965245</v>
+        <v>0.7833103</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P9" t="n">
-        <v>0.815520213636364</v>
+        <v>0.788983231818182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8242398</v>
+        <v>0.8058511</v>
       </c>
       <c r="R9" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="T9" t="n">
-        <v>0.610006081818182</v>
+        <v>0.758360218181818</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5</v>
+        <v>0.82923675</v>
       </c>
       <c r="V9" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="W9" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>0.240601073181818</v>
+        <v>0.642533866818182</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.770787</v>
       </c>
       <c r="Z9" t="n">
         <v>75</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>51.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>34</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="10">
@@ -1671,70 +1671,70 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.728865895454545</v>
+        <v>0.713752122727273</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7285459</v>
+        <v>0.71390135</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L10" t="n">
-        <v>0.796724172727273</v>
+        <v>0.780210109090909</v>
       </c>
       <c r="M10" t="n">
-        <v>0.805596</v>
+        <v>0.7765765</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="P10" t="n">
-        <v>0.816494909090909</v>
+        <v>0.803852468181818</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8315791</v>
+        <v>0.81046355</v>
       </c>
       <c r="R10" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="T10" t="n">
-        <v>0.748524313636364</v>
+        <v>0.762835622727273</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8375218</v>
+        <v>0.8345296</v>
       </c>
       <c r="V10" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.550858221363636</v>
+        <v>0.685630436818182</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.72748455</v>
+        <v>0.80634045</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AB10" t="n">
-        <v>25.6</v>
+        <v>37.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="11">
@@ -1760,70 +1760,70 @@
         <v>54</v>
       </c>
       <c r="H11" t="n">
-        <v>0.708916604545455</v>
+        <v>0.711402331818182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7089166</v>
+        <v>0.7069309</v>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" t="n">
-        <v>0.784485786363636</v>
+        <v>0.784862781818182</v>
       </c>
       <c r="M11" t="n">
-        <v>0.780862</v>
+        <v>0.77859405</v>
       </c>
       <c r="N11" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="P11" t="n">
-        <v>0.817019586363636</v>
+        <v>0.815831518181818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8174645</v>
+        <v>0.81631335</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T11" t="n">
-        <v>0.771592077272727</v>
+        <v>0.764654313636364</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8048867</v>
+        <v>0.80281235</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="W11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X11" t="n">
-        <v>0.734339379090909</v>
+        <v>0.732574726363636</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8112586</v>
+        <v>0.81082145</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="n">
-        <v>27.8</v>
+        <v>24.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>36</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="12">
@@ -1849,43 +1849,43 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727774845454545</v>
+        <v>0.733605522727273</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7277748</v>
+        <v>0.73411625</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>0.789104495454545</v>
+        <v>0.791697345454546</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7957736</v>
+        <v>0.80514135</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>0.804210472727273</v>
+        <v>0.806541309090909</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8234133</v>
+        <v>0.8281909</v>
       </c>
       <c r="R12" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T12" t="n">
-        <v>0.609761009090909</v>
+        <v>0.613135372727273</v>
       </c>
       <c r="U12" t="n">
         <v>0.5</v>
@@ -1897,7 +1897,7 @@
         <v>76</v>
       </c>
       <c r="X12" t="n">
-        <v>0.240032567272727</v>
+        <v>0.247292672727273</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>76</v>
       </c>
       <c r="AB12" t="n">
-        <v>45.6</v>
+        <v>35.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>35.4</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="13">
@@ -1938,70 +1938,70 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.709135959090909</v>
+        <v>0.713120604545455</v>
       </c>
       <c r="I13" t="n">
-        <v>0.709136</v>
+        <v>0.714843</v>
       </c>
       <c r="J13" t="n">
         <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L13" t="n">
-        <v>0.780479618181818</v>
+        <v>0.77936685</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7838646</v>
+        <v>0.7767821</v>
       </c>
       <c r="N13" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" t="n">
-        <v>0.811186795454545</v>
+        <v>0.803880377272727</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8111868</v>
+        <v>0.8111351</v>
       </c>
       <c r="R13" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="T13" t="n">
-        <v>0.767676063636364</v>
+        <v>0.767176890909091</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8117755</v>
+        <v>0.82476555</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>0.64767512</v>
+        <v>0.695075383181818</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7804162</v>
+        <v>0.8065641</v>
       </c>
       <c r="Z13" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AB13" t="n">
-        <v>41.2</v>
+        <v>34.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -2027,70 +2027,70 @@
         <v>59</v>
       </c>
       <c r="H14" t="n">
-        <v>0.708778568181818</v>
+        <v>0.710815931818182</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7087786</v>
+        <v>0.7069097</v>
       </c>
       <c r="J14" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" t="n">
-        <v>0.784628036363636</v>
+        <v>0.786021740909091</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7843858</v>
+        <v>0.7783658</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>0.817289872727273</v>
+        <v>0.820737768181818</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8177805</v>
+        <v>0.8162893</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T14" t="n">
-        <v>0.770730486363636</v>
+        <v>0.764618186363636</v>
       </c>
       <c r="U14" t="n">
-        <v>0.804498</v>
+        <v>0.80188265</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X14" t="n">
-        <v>0.734446427272727</v>
+        <v>0.734308378636364</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8112586</v>
+        <v>0.8103185</v>
       </c>
       <c r="Z14" t="n">
         <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AB14" t="n">
-        <v>27.4</v>
+        <v>23.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>33.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="15">
@@ -2116,70 +2116,70 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7237562</v>
+        <v>0.7323133</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7237562</v>
+        <v>0.7337713</v>
       </c>
       <c r="J15" t="n">
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0.788230636363636</v>
+        <v>0.787475204545454</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7957238</v>
+        <v>0.8026369</v>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>0.803777218181818</v>
+        <v>0.801640009090909</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8230716</v>
+        <v>0.82562635</v>
       </c>
       <c r="R15" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T15" t="n">
-        <v>0.609013595454545</v>
+        <v>0.611319231818182</v>
       </c>
       <c r="U15" t="n">
         <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W15" t="n">
         <v>77</v>
       </c>
       <c r="X15" t="n">
-        <v>0.238551236818182</v>
+        <v>0.243028427272727</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="n">
         <v>77</v>
       </c>
       <c r="AB15" t="n">
-        <v>49.2</v>
+        <v>41.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>37.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2205,70 +2205,70 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.723818527272727</v>
+        <v>0.710935277272727</v>
       </c>
       <c r="I16" t="n">
-        <v>0.719722</v>
+        <v>0.71366815</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K16" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L16" t="n">
-        <v>0.795510331818182</v>
+        <v>0.775871618181818</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8065433</v>
+        <v>0.7845492</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
-        <v>0.817356440909091</v>
+        <v>0.796050727272727</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8332881</v>
+        <v>0.8098563</v>
       </c>
       <c r="R16" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="T16" t="n">
-        <v>0.698358272727273</v>
+        <v>0.761371709090909</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7421704</v>
+        <v>0.82262695</v>
       </c>
       <c r="V16" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="W16" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="X16" t="n">
-        <v>0.435066908636364</v>
+        <v>0.682023311818182</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5171345</v>
+        <v>0.7815648</v>
       </c>
       <c r="Z16" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AA16" t="n">
         <v>71</v>
       </c>
       <c r="AB16" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AC16" t="n">
-        <v>28.8</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="17">
@@ -2294,70 +2294,70 @@
         <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>0.704529063636364</v>
+        <v>0.706202145454545</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7045291</v>
+        <v>0.6907429</v>
       </c>
       <c r="J17" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17" t="n">
+        <v>52</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.774328931818182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.76466725</v>
+      </c>
+      <c r="N17" t="n">
         <v>48</v>
       </c>
-      <c r="L17" t="n">
-        <v>0.781223554545455</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.7812236</v>
-      </c>
-      <c r="N17" t="n">
-        <v>43</v>
-      </c>
       <c r="O17" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8148778</v>
+        <v>0.806848863636364</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8175362</v>
+        <v>0.7883395</v>
       </c>
       <c r="R17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T17" t="n">
-        <v>0.766710313636364</v>
+        <v>0.761702131818182</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7998985</v>
+        <v>0.7992889</v>
       </c>
       <c r="V17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>0.734898824090909</v>
+        <v>0.734268730454545</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8119168</v>
+        <v>0.81074345</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>35.4</v>
+        <v>36.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>35.4</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="18">
@@ -2383,70 +2383,70 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7237562</v>
+        <v>0.732532272727273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7237562</v>
+        <v>0.73210755</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>0.788230636363636</v>
+        <v>0.787621686363636</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7957238</v>
+        <v>0.81231415</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8037772</v>
+        <v>0.801331059090909</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8230737</v>
+        <v>0.83123745</v>
       </c>
       <c r="R18" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="S18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.609039063636364</v>
+        <v>0.610801981818182</v>
       </c>
       <c r="U18" t="n">
         <v>0.5</v>
       </c>
       <c r="V18" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="n">
         <v>78</v>
       </c>
       <c r="X18" t="n">
-        <v>0.238593491363636</v>
+        <v>0.24236645</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="n">
         <v>78</v>
       </c>
       <c r="AB18" t="n">
-        <v>49.2</v>
+        <v>41.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>38.4</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="19">
@@ -2472,70 +2472,70 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7097652</v>
+        <v>0.713062390909091</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7097652</v>
+        <v>0.7156628</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K19" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7803717</v>
+        <v>0.779865668181818</v>
       </c>
       <c r="M19" t="n">
-        <v>0.782005</v>
+        <v>0.7771841</v>
       </c>
       <c r="N19" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O19" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P19" t="n">
-        <v>0.811111154545455</v>
+        <v>0.803126695454545</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8111112</v>
+        <v>0.81046405</v>
       </c>
       <c r="R19" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7673635</v>
+        <v>0.768568404545454</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8117861</v>
+        <v>0.82872455</v>
       </c>
       <c r="V19" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>0.647923924090909</v>
+        <v>0.700224961818182</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7804162</v>
+        <v>0.80646055</v>
       </c>
       <c r="Z19" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>33.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>43.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="20">
@@ -2561,70 +2561,70 @@
         <v>69</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7049833</v>
+        <v>0.704931081818182</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6994602</v>
+        <v>0.6904328</v>
       </c>
       <c r="J20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L20" t="n">
-        <v>0.782006940909091</v>
+        <v>0.773058513636364</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7820069</v>
+        <v>0.76622615</v>
       </c>
       <c r="N20" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O20" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P20" t="n">
-        <v>0.815499195454545</v>
+        <v>0.805065568181818</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8187396</v>
+        <v>0.79032255</v>
       </c>
       <c r="R20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="T20" t="n">
-        <v>0.765740309090909</v>
+        <v>0.760975018181818</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7993535</v>
+        <v>0.79561955</v>
       </c>
       <c r="V20" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X20" t="n">
-        <v>0.734609451818182</v>
+        <v>0.734223594090909</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8119168</v>
+        <v>0.81074345</v>
       </c>
       <c r="Z20" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AA20" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="n">
-        <v>34.2</v>
+        <v>39.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>34</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="21">
@@ -2650,55 +2650,55 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.723955131818182</v>
+        <v>0.732763431818182</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7239551</v>
+        <v>0.73191995</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>0.788054213636364</v>
+        <v>0.787525090909091</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7954189</v>
+        <v>0.8114545</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>0.80345425</v>
+        <v>0.801015554545455</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8228786</v>
+        <v>0.8312178</v>
       </c>
       <c r="R21" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="S21" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>0.609013727272727</v>
+        <v>0.610787177272727</v>
       </c>
       <c r="U21" t="n">
         <v>0.5</v>
       </c>
       <c r="V21" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="n">
         <v>79</v>
       </c>
       <c r="X21" t="n">
-        <v>0.238422109545455</v>
+        <v>0.242245977272727</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>79</v>
       </c>
       <c r="AB21" t="n">
-        <v>49.6</v>
+        <v>41.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>39</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="22">
@@ -2739,70 +2739,70 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.715557122727273</v>
+        <v>0.713495586363636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7210397</v>
+        <v>0.71644545</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L22" t="n">
-        <v>0.778083022727273</v>
+        <v>0.779088659090909</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7818825</v>
+        <v>0.77559595</v>
       </c>
       <c r="N22" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O22" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P22" t="n">
-        <v>0.801641990909091</v>
+        <v>0.803018113636364</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8226906</v>
+        <v>0.81142345</v>
       </c>
       <c r="R22" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="S22" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T22" t="n">
-        <v>0.760033913636364</v>
+        <v>0.76699585</v>
       </c>
       <c r="U22" t="n">
-        <v>0.813447</v>
+        <v>0.8249768</v>
       </c>
       <c r="V22" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>0.633816905</v>
+        <v>0.694789239090909</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7445988</v>
+        <v>0.8064175</v>
       </c>
       <c r="Z22" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AA22" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB22" t="n">
-        <v>46.2</v>
+        <v>36</v>
       </c>
       <c r="AC22" t="n">
-        <v>32.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="23">
@@ -2828,70 +2828,70 @@
         <v>74</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7030152</v>
+        <v>0.703985563636364</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6994602</v>
+        <v>0.68826165</v>
       </c>
       <c r="J23" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L23" t="n">
-        <v>0.781802763636364</v>
+        <v>0.772455154545455</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7818028</v>
+        <v>0.76303695</v>
       </c>
       <c r="N23" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O23" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>0.815532722727273</v>
+        <v>0.80453355</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8181375</v>
+        <v>0.78868835</v>
       </c>
       <c r="R23" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S23" t="n">
+        <v>58</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.760762613636364</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.7975361</v>
+      </c>
+      <c r="V23" t="n">
         <v>27</v>
       </c>
-      <c r="T23" t="n">
-        <v>0.764451418181818</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.7955582</v>
-      </c>
-      <c r="V23" t="n">
-        <v>22</v>
-      </c>
       <c r="W23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X23" t="n">
-        <v>0.734332475909091</v>
+        <v>0.734760404090909</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8119168</v>
+        <v>0.81074345</v>
       </c>
       <c r="Z23" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="n">
-        <v>36.6</v>
+        <v>39.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>35.8</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="24">
@@ -2917,70 +2917,70 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.72662565</v>
+        <v>0.732772186363636</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7266257</v>
+        <v>0.7286456</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
-        <v>0.788840286363636</v>
+        <v>0.787507577272727</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7953024</v>
+        <v>0.81414405</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.805438409090909</v>
+        <v>0.800952968181818</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8227703</v>
+        <v>0.8309134</v>
       </c>
       <c r="R24" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="S24" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>0.581060218181818</v>
+        <v>0.610648163636364</v>
       </c>
       <c r="U24" t="n">
         <v>0.5</v>
       </c>
       <c r="V24" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W24" t="n">
         <v>80</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1790318</v>
+        <v>0.241928827272727</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="n">
         <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>49.2</v>
+        <v>43</v>
       </c>
       <c r="AC24" t="n">
-        <v>39.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -3006,70 +3006,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.713924786363636</v>
+        <v>0.713649022727273</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7139248</v>
+        <v>0.7159559</v>
       </c>
       <c r="J25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L25" t="n">
-        <v>0.784013627272727</v>
+        <v>0.779830145454545</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7845008</v>
+        <v>0.7745478</v>
       </c>
       <c r="N25" t="n">
+        <v>40</v>
+      </c>
+      <c r="O25" t="n">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8037267</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8117432</v>
+      </c>
+      <c r="R25" t="n">
+        <v>34</v>
+      </c>
+      <c r="S25" t="n">
         <v>35</v>
       </c>
-      <c r="O25" t="n">
-        <v>39</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.812201386363636</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.8231485</v>
-      </c>
-      <c r="R25" t="n">
-        <v>38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>13</v>
-      </c>
       <c r="T25" t="n">
-        <v>0.767033159090909</v>
+        <v>0.767687745454545</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8130761</v>
+        <v>0.82412265</v>
       </c>
       <c r="V25" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>0.637486505909091</v>
+        <v>0.697040689090909</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7549107</v>
+        <v>0.80651845</v>
       </c>
       <c r="Z25" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AA25" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>37</v>
+        <v>33.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>34.6</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="26">
@@ -3095,70 +3095,70 @@
         <v>79</v>
       </c>
       <c r="H26" t="n">
-        <v>0.703212959090909</v>
+        <v>0.703496445454545</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6988291</v>
+        <v>0.6882121</v>
       </c>
       <c r="J26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26" t="n">
+        <v>56</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.772353163636364</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.76354365</v>
+      </c>
+      <c r="N26" t="n">
         <v>55</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.781904618181818</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7815985</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39</v>
-      </c>
       <c r="O26" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P26" t="n">
-        <v>0.815472922727273</v>
+        <v>0.804290654545455</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8183238</v>
+        <v>0.7889502</v>
       </c>
       <c r="R26" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="S26" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T26" t="n">
-        <v>0.763597968181818</v>
+        <v>0.760586936363636</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7955582</v>
+        <v>0.7971798</v>
       </c>
       <c r="V26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>0.734372311818182</v>
+        <v>0.734760588181818</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8125745</v>
+        <v>0.81074345</v>
       </c>
       <c r="Z26" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="n">
-        <v>36.6</v>
+        <v>40.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>34.6</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="27">
@@ -3184,70 +3184,70 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.726698745454545</v>
+        <v>0.733008459090909</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7266987</v>
+        <v>0.72880385</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>0.788845772727273</v>
+        <v>0.787476409090909</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7952346</v>
+        <v>0.8138863</v>
       </c>
       <c r="N27" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>0.805400140909091</v>
+        <v>0.800914818181818</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.82273</v>
+        <v>0.8307424</v>
       </c>
       <c r="R27" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="S27" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>0.581060218181818</v>
+        <v>0.610712145454545</v>
       </c>
       <c r="U27" t="n">
         <v>0.5</v>
       </c>
       <c r="V27" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W27" t="n">
         <v>81</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1790318</v>
+        <v>0.241907695454545</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="n">
         <v>81</v>
       </c>
       <c r="AB27" t="n">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="AC27" t="n">
-        <v>39.8</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="28">
@@ -3273,70 +3273,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.715240286363636</v>
+        <v>0.715494309090909</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7174936</v>
+        <v>0.72544045</v>
       </c>
       <c r="J28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K28" t="n">
         <v>24</v>
       </c>
       <c r="L28" t="n">
-        <v>0.784679018181818</v>
+        <v>0.781327390909091</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7847774</v>
+        <v>0.78150565</v>
       </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O28" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P28" t="n">
-        <v>0.811304336363636</v>
+        <v>0.804814504545455</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.8236112</v>
+        <v>0.81861295</v>
       </c>
       <c r="R28" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="S28" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="T28" t="n">
-        <v>0.768307772727273</v>
+        <v>0.766862959090909</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8161599</v>
+        <v>0.8245011</v>
       </c>
       <c r="V28" t="n">
+        <v>7</v>
+      </c>
+      <c r="W28" t="n">
         <v>15</v>
       </c>
-      <c r="W28" t="n">
-        <v>3</v>
-      </c>
       <c r="X28" t="n">
-        <v>0.654602458636364</v>
+        <v>0.691000170909091</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7569401</v>
+        <v>0.80664405</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AA28" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AB28" t="n">
-        <v>34.4</v>
+        <v>29.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>28.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="29">
@@ -3362,70 +3362,70 @@
         <v>84</v>
       </c>
       <c r="H29" t="n">
-        <v>0.687514263636364</v>
+        <v>0.702834622727273</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6806031</v>
+        <v>0.6884452</v>
       </c>
       <c r="J29" t="n">
+        <v>52</v>
+      </c>
+      <c r="K29" t="n">
+        <v>54</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.770853413636364</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7626915</v>
+      </c>
+      <c r="N29" t="n">
         <v>56</v>
       </c>
-      <c r="K29" t="n">
-        <v>56</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.780680490909091</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7806805</v>
-      </c>
-      <c r="N29" t="n">
-        <v>44</v>
-      </c>
       <c r="O29" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
-        <v>0.816736090909091</v>
+        <v>0.802134463636364</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8167361</v>
+        <v>0.7886581</v>
       </c>
       <c r="R29" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="S29" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="T29" t="n">
-        <v>0.746467286363636</v>
+        <v>0.760055122727273</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7745425</v>
+        <v>0.79697715</v>
       </c>
       <c r="V29" t="n">
+        <v>29</v>
+      </c>
+      <c r="W29" t="n">
+        <v>30</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.734538798181818</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.8112246</v>
+      </c>
+      <c r="Z29" t="n">
         <v>40</v>
       </c>
-      <c r="W29" t="n">
-        <v>28</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.755887099545455</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.8105346</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>20</v>
-      </c>
       <c r="AA29" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>34.8</v>
+        <v>42.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>41.8</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="30">
@@ -3451,43 +3451,43 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.708804004545455</v>
+        <v>0.732892163636364</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7170402</v>
+        <v>0.7288986</v>
       </c>
       <c r="J30" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>0.779263490909091</v>
+        <v>0.7873505</v>
       </c>
       <c r="M30" t="n">
-        <v>0.787744</v>
+        <v>0.81395715</v>
       </c>
       <c r="N30" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>0.797383590909091</v>
+        <v>0.800800531818182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8060128</v>
+        <v>0.83021585</v>
       </c>
       <c r="R30" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="S30" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5824062</v>
+        <v>0.610773813636364</v>
       </c>
       <c r="U30" t="n">
         <v>0.5</v>
@@ -3499,22 +3499,22 @@
         <v>82</v>
       </c>
       <c r="X30" t="n">
-        <v>0.187284839090909</v>
+        <v>0.241885304545455</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="n">
         <v>82</v>
       </c>
       <c r="AB30" t="n">
-        <v>62.2</v>
+        <v>44.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>55.2</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="31">
@@ -3540,70 +3540,70 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.715778336363636</v>
+        <v>0.714950109090909</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7163915</v>
+        <v>0.721583</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
-        <v>0.788914186363636</v>
+        <v>0.781129018181818</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7883866</v>
+        <v>0.77861185</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="P31" t="n">
-        <v>0.815619536363636</v>
+        <v>0.804610709090909</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8162863</v>
+        <v>0.81604885</v>
       </c>
       <c r="R31" t="n">
+        <v>27</v>
+      </c>
+      <c r="S31" t="n">
+        <v>27</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.766793122727273</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.82383915</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8</v>
+      </c>
+      <c r="W31" t="n">
         <v>19</v>
       </c>
-      <c r="S31" t="n">
-        <v>38</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.774738918181818</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.8153182</v>
-      </c>
-      <c r="V31" t="n">
-        <v>6</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6</v>
-      </c>
       <c r="X31" t="n">
-        <v>0.678934235</v>
+        <v>0.693648643181818</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8144065</v>
+        <v>0.8070774</v>
       </c>
       <c r="Z31" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>23.4</v>
+        <v>31.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>22</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="32">
@@ -3629,70 +3629,70 @@
         <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>0.686119145454545</v>
+        <v>0.699249327272727</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6749829</v>
+        <v>0.68151375</v>
       </c>
       <c r="J32" t="n">
+        <v>53</v>
+      </c>
+      <c r="K32" t="n">
+        <v>58</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.768689877272727</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.75951675</v>
+      </c>
+      <c r="N32" t="n">
         <v>57</v>
       </c>
-      <c r="K32" t="n">
-        <v>57</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.776451922727273</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.7750856</v>
-      </c>
-      <c r="N32" t="n">
-        <v>58</v>
-      </c>
       <c r="O32" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
-        <v>0.810842495454545</v>
+        <v>0.800332577272727</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8108425</v>
+        <v>0.7856018</v>
       </c>
       <c r="R32" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S32" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="T32" t="n">
-        <v>0.744162422727273</v>
+        <v>0.759525768181818</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7745425</v>
+        <v>0.7957486</v>
       </c>
       <c r="V32" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X32" t="n">
-        <v>0.754478500909091</v>
+        <v>0.734417316363636</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.8092832</v>
+        <v>0.8112246</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AB32" t="n">
-        <v>45.2</v>
+        <v>46.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>49</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="33">
@@ -3718,55 +3718,55 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.70875225</v>
+        <v>0.732917440909091</v>
       </c>
       <c r="I33" t="n">
-        <v>0.717011</v>
+        <v>0.7288936</v>
       </c>
       <c r="J33" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>0.778867422727273</v>
+        <v>0.787384059090909</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7864302</v>
+        <v>0.81395615</v>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>0.796912781818182</v>
+        <v>0.800632372727273</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8032126</v>
+        <v>0.83021435</v>
       </c>
       <c r="R33" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="S33" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5821726</v>
+        <v>0.610773813636364</v>
       </c>
       <c r="U33" t="n">
         <v>0.5</v>
       </c>
       <c r="V33" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W33" t="n">
         <v>83</v>
       </c>
       <c r="X33" t="n">
-        <v>0.186900952727273</v>
+        <v>0.241885304545455</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>83</v>
       </c>
       <c r="AB33" t="n">
-        <v>64.4</v>
+        <v>44.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>58.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="34">
@@ -3807,70 +3807,70 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.715106463636364</v>
+        <v>0.715189404545455</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7170928</v>
+        <v>0.7266213</v>
       </c>
       <c r="J34" t="n">
+        <v>28</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.780752318181818</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7833282</v>
+      </c>
+      <c r="N34" t="n">
+        <v>35</v>
+      </c>
+      <c r="O34" t="n">
+        <v>29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.804654831818182</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.81938215</v>
+      </c>
+      <c r="R34" t="n">
+        <v>26</v>
+      </c>
+      <c r="S34" t="n">
         <v>21</v>
       </c>
-      <c r="K34" t="n">
-        <v>26</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.788254363636364</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7862124</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>33</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.814824913636364</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.8162977</v>
-      </c>
-      <c r="R34" t="n">
-        <v>25</v>
-      </c>
-      <c r="S34" t="n">
-        <v>37</v>
-      </c>
       <c r="T34" t="n">
-        <v>0.775248559090909</v>
+        <v>0.765651868181818</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8152795</v>
+        <v>0.82427155</v>
       </c>
       <c r="V34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X34" t="n">
-        <v>0.692357972272727</v>
+        <v>0.690600320454545</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.8208884</v>
+        <v>0.8066739</v>
       </c>
       <c r="Z34" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA34" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="AB34" t="n">
-        <v>24.4</v>
+        <v>32.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -3896,70 +3896,70 @@
         <v>94</v>
       </c>
       <c r="H35" t="n">
-        <v>0.685338313636364</v>
+        <v>0.698676709090909</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6749287</v>
+        <v>0.68131155</v>
       </c>
       <c r="J35" t="n">
+        <v>55</v>
+      </c>
+      <c r="K35" t="n">
+        <v>59</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.768545163636364</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7571605</v>
+      </c>
+      <c r="N35" t="n">
         <v>58</v>
       </c>
-      <c r="K35" t="n">
-        <v>58</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.776267109090909</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.7750437</v>
-      </c>
-      <c r="N35" t="n">
-        <v>59</v>
-      </c>
       <c r="O35" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P35" t="n">
-        <v>0.809407386363636</v>
+        <v>0.800524822727273</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8094074</v>
+        <v>0.78550935</v>
       </c>
       <c r="R35" t="n">
+        <v>48</v>
+      </c>
+      <c r="S35" t="n">
+        <v>67</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.759428268181818</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7953145</v>
+      </c>
+      <c r="V35" t="n">
+        <v>31</v>
+      </c>
+      <c r="W35" t="n">
+        <v>33</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.734390848181818</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8112246</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB35" t="n">
         <v>47</v>
       </c>
-      <c r="S35" t="n">
-        <v>57</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.743072927272727</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.7745425</v>
-      </c>
-      <c r="V35" t="n">
-        <v>46</v>
-      </c>
-      <c r="W35" t="n">
-        <v>30</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.753334295</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.8095827</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>47.2</v>
-      </c>
       <c r="AC35" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="36">
@@ -3985,43 +3985,43 @@
         <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7087647</v>
+        <v>0.732425886363636</v>
       </c>
       <c r="I36" t="n">
-        <v>0.717011</v>
+        <v>0.72889905</v>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K36" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>0.778313163636364</v>
+        <v>0.786950436363636</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7865762</v>
+        <v>0.81347325</v>
       </c>
       <c r="N36" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>0.796089659090909</v>
+        <v>0.8003234</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8034889</v>
+        <v>0.8301974</v>
       </c>
       <c r="R36" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="S36" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="T36" t="n">
-        <v>0.5821726</v>
+        <v>0.610478586363636</v>
       </c>
       <c r="U36" t="n">
         <v>0.5</v>
@@ -4033,7 +4033,7 @@
         <v>84</v>
       </c>
       <c r="X36" t="n">
-        <v>0.186900952727273</v>
+        <v>0.241308513636364</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -4045,10 +4045,10 @@
         <v>84</v>
       </c>
       <c r="AB36" t="n">
-        <v>65</v>
+        <v>47.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>58.6</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="37">
@@ -4074,70 +4074,70 @@
         <v>94</v>
       </c>
       <c r="H37" t="n">
-        <v>0.712464254545455</v>
+        <v>0.714673977272727</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7177667</v>
+        <v>0.72642935</v>
       </c>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" t="n">
         <v>23</v>
       </c>
       <c r="L37" t="n">
-        <v>0.78604295</v>
+        <v>0.780416113636364</v>
       </c>
       <c r="M37" t="n">
-        <v>0.786043</v>
+        <v>0.78393675</v>
       </c>
       <c r="N37" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O37" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P37" t="n">
-        <v>0.812452718181818</v>
+        <v>0.8043245</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8155105</v>
+        <v>0.8211968</v>
       </c>
       <c r="R37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S37" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T37" t="n">
-        <v>0.771462195454545</v>
+        <v>0.765245840909091</v>
       </c>
       <c r="U37" t="n">
-        <v>0.815383</v>
+        <v>0.8246361</v>
       </c>
       <c r="V37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="X37" t="n">
-        <v>0.694877389545455</v>
+        <v>0.689924421363636</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.8200946</v>
+        <v>0.80678</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AA37" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="AB37" t="n">
-        <v>32.2</v>
+        <v>35.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>22.6</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="38">
@@ -4163,70 +4163,70 @@
         <v>99</v>
       </c>
       <c r="H38" t="n">
-        <v>0.685302413636364</v>
+        <v>0.698566327272727</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6747562</v>
+        <v>0.6819196</v>
       </c>
       <c r="J38" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L38" t="n">
-        <v>0.776200236363636</v>
+        <v>0.768499972727273</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7747709</v>
+        <v>0.7571605</v>
       </c>
       <c r="N38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O38" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
-        <v>0.809408581818182</v>
+        <v>0.800503631818182</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8094086</v>
+        <v>0.78550965</v>
       </c>
       <c r="R38" t="n">
+        <v>49</v>
+      </c>
+      <c r="S38" t="n">
+        <v>66</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.759165240909091</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.7946886</v>
+      </c>
+      <c r="V38" t="n">
+        <v>32</v>
+      </c>
+      <c r="W38" t="n">
+        <v>34</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.734225807272727</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.81139425</v>
+      </c>
+      <c r="Z38" t="n">
         <v>46</v>
       </c>
-      <c r="S38" t="n">
-        <v>56</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.743047827272727</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.7745425</v>
-      </c>
-      <c r="V38" t="n">
-        <v>47</v>
-      </c>
-      <c r="W38" t="n">
-        <v>31</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.753340161818182</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.8095827</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>25</v>
-      </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AB38" t="n">
-        <v>47.4</v>
+        <v>48.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>50.6</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="39">
@@ -4252,70 +4252,70 @@
         <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>0.709206731818182</v>
+        <v>0.7294874</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7170071</v>
+        <v>0.72781535</v>
       </c>
       <c r="J39" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K39" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L39" t="n">
-        <v>0.778238413636364</v>
+        <v>0.785572809090909</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7865514</v>
+        <v>0.80504835</v>
       </c>
       <c r="N39" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P39" t="n">
-        <v>0.796013195454545</v>
+        <v>0.799478109090909</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8034588</v>
+        <v>0.82481555</v>
       </c>
       <c r="R39" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="S39" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="T39" t="n">
-        <v>0.582192640909091</v>
+        <v>0.607366886363636</v>
       </c>
       <c r="U39" t="n">
         <v>0.5</v>
       </c>
       <c r="V39" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W39" t="n">
         <v>85</v>
       </c>
       <c r="X39" t="n">
-        <v>0.186907325454545</v>
+        <v>0.234459081818182</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AA39" t="n">
         <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>63.4</v>
+        <v>49.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>59.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="40">
@@ -4341,70 +4341,70 @@
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>0.714379304545455</v>
+        <v>0.716130213636364</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7139185</v>
+        <v>0.7286352</v>
       </c>
       <c r="J40" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K40" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7877729</v>
+        <v>0.782387390909091</v>
       </c>
       <c r="M40" t="n">
-        <v>0.785876</v>
+        <v>0.7849798</v>
       </c>
       <c r="N40" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O40" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P40" t="n">
-        <v>0.813571836363636</v>
+        <v>0.806286077272727</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8149468</v>
+        <v>0.8210064</v>
       </c>
       <c r="R40" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="S40" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="T40" t="n">
-        <v>0.772868786363636</v>
+        <v>0.765291145454545</v>
       </c>
       <c r="U40" t="n">
-        <v>0.81517</v>
+        <v>0.8255315</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
-        <v>0.686494648636364</v>
+        <v>0.682860061818182</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.8202398</v>
+        <v>0.80629195</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="AB40" t="n">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -4430,70 +4430,70 @@
         <v>104</v>
       </c>
       <c r="H41" t="n">
-        <v>0.684811486363636</v>
+        <v>0.698489786363636</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6732116</v>
+        <v>0.6806601</v>
       </c>
       <c r="J41" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K41" t="n">
         <v>60</v>
       </c>
       <c r="L41" t="n">
-        <v>0.776129681818182</v>
+        <v>0.768513777272727</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7740075</v>
+        <v>0.7571605</v>
       </c>
       <c r="N41" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O41" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
-        <v>0.809399027272727</v>
+        <v>0.80060595</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.809399</v>
+        <v>0.7855256</v>
       </c>
       <c r="R41" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S41" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T41" t="n">
-        <v>0.742984090909091</v>
+        <v>0.759140013636364</v>
       </c>
       <c r="U41" t="n">
-        <v>0.7745425</v>
+        <v>0.7946022</v>
       </c>
       <c r="V41" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="W41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X41" t="n">
-        <v>0.753308399090909</v>
+        <v>0.734544339090909</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8095827</v>
+        <v>0.81139425</v>
       </c>
       <c r="Z41" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AA41" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AB41" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>52</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="42">
@@ -4519,70 +4519,70 @@
         <v>104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.709189854545455</v>
+        <v>0.725119386363636</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7172814</v>
+        <v>0.7274318</v>
       </c>
       <c r="J42" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K42" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L42" t="n">
-        <v>0.778091572727273</v>
+        <v>0.784082963636364</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7860198</v>
+        <v>0.80288665</v>
       </c>
       <c r="N42" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O42" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P42" t="n">
-        <v>0.795713677272727</v>
+        <v>0.798843163636364</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.8035341</v>
+        <v>0.82433355</v>
       </c>
       <c r="R42" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="S42" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="T42" t="n">
-        <v>0.582247213636364</v>
+        <v>0.606209890909091</v>
       </c>
       <c r="U42" t="n">
         <v>0.5</v>
       </c>
       <c r="V42" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W42" t="n">
         <v>86</v>
       </c>
       <c r="X42" t="n">
-        <v>0.18691498</v>
+        <v>0.232049140909091</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AA42" t="n">
         <v>86</v>
       </c>
       <c r="AB42" t="n">
-        <v>63.6</v>
+        <v>52</v>
       </c>
       <c r="AC42" t="n">
-        <v>59.8</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="43">
@@ -4608,70 +4608,70 @@
         <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.712551177272727</v>
+        <v>0.715480318181818</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7157228</v>
+        <v>0.72936865</v>
       </c>
       <c r="J43" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
-        <v>0.786999486363636</v>
+        <v>0.782591636363636</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7863739</v>
+        <v>0.78468915</v>
       </c>
       <c r="N43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O43" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P43" t="n">
-        <v>0.812279227272727</v>
+        <v>0.807631481818182</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8149528</v>
+        <v>0.820603</v>
       </c>
       <c r="R43" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="S43" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="T43" t="n">
-        <v>0.771002804545455</v>
+        <v>0.765345631818182</v>
       </c>
       <c r="U43" t="n">
-        <v>0.8143698</v>
+        <v>0.8251104</v>
       </c>
       <c r="V43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X43" t="n">
-        <v>0.691019897272727</v>
+        <v>0.682113425</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8200946</v>
+        <v>0.80613625</v>
       </c>
       <c r="Z43" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AA43" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="AB43" t="n">
-        <v>32.4</v>
+        <v>28.8</v>
       </c>
       <c r="AC43" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="44">
@@ -4697,70 +4697,70 @@
         <v>109</v>
       </c>
       <c r="H44" t="n">
-        <v>0.670571568181818</v>
+        <v>0.698129190909091</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6690181</v>
+        <v>0.6805844</v>
       </c>
       <c r="J44" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K44" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L44" t="n">
-        <v>0.772752895454546</v>
+        <v>0.768134195454545</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7773348</v>
+        <v>0.75677055</v>
       </c>
       <c r="N44" t="n">
+        <v>62</v>
+      </c>
+      <c r="O44" t="n">
         <v>66</v>
       </c>
-      <c r="O44" t="n">
-        <v>57</v>
-      </c>
       <c r="P44" t="n">
-        <v>0.80646615</v>
+        <v>0.800067459090909</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8073803</v>
+        <v>0.7855429</v>
       </c>
       <c r="R44" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S44" t="n">
         <v>64</v>
       </c>
       <c r="T44" t="n">
-        <v>0.739371054545455</v>
+        <v>0.759085581818182</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7529495</v>
+        <v>0.79451585</v>
       </c>
       <c r="V44" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="W44" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="X44" t="n">
-        <v>0.753379576363636</v>
+        <v>0.734503570909091</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8124503</v>
+        <v>0.81139425</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB44" t="n">
-        <v>51.2</v>
+        <v>49.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="45">
@@ -4786,43 +4786,43 @@
         <v>109</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7081303</v>
+        <v>0.7250465</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7204487</v>
+        <v>0.72722995</v>
       </c>
       <c r="J45" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K45" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
-        <v>0.773462822727273</v>
+        <v>0.784011359090909</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7774588</v>
+        <v>0.80288245</v>
       </c>
       <c r="N45" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="O45" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="P45" t="n">
-        <v>0.789682931818182</v>
+        <v>0.798772813636364</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7985352</v>
+        <v>0.82432835</v>
       </c>
       <c r="R45" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="S45" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="T45" t="n">
-        <v>0.579431127272727</v>
+        <v>0.606178527272727</v>
       </c>
       <c r="U45" t="n">
         <v>0.5</v>
@@ -4834,7 +4834,7 @@
         <v>87</v>
       </c>
       <c r="X45" t="n">
-        <v>0.177070093636364</v>
+        <v>0.231997086363636</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>87</v>
       </c>
       <c r="AB45" t="n">
-        <v>70.4</v>
+        <v>53.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>64</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="46">
@@ -4875,70 +4875,70 @@
         <v>109</v>
       </c>
       <c r="H46" t="n">
-        <v>0.714577422727273</v>
+        <v>0.715799481818182</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7156429</v>
+        <v>0.72864675</v>
       </c>
       <c r="J46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K46" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L46" t="n">
-        <v>0.787701922727273</v>
+        <v>0.782338372727273</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7869955</v>
+        <v>0.78530415</v>
       </c>
       <c r="N46" t="n">
+        <v>27</v>
+      </c>
+      <c r="O46" t="n">
         <v>20</v>
       </c>
-      <c r="O46" t="n">
-        <v>24</v>
-      </c>
       <c r="P46" t="n">
-        <v>0.813328086363636</v>
+        <v>0.807386363636364</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8151166</v>
+        <v>0.8206385</v>
       </c>
       <c r="R46" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="S46" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7724971</v>
+        <v>0.766015377272727</v>
       </c>
       <c r="U46" t="n">
-        <v>0.8145111</v>
+        <v>0.82574155</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X46" t="n">
-        <v>0.692012389545455</v>
+        <v>0.684827586818182</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8216022</v>
+        <v>0.80606535</v>
       </c>
       <c r="Z46" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AA46" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="AB46" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="AC46" t="n">
-        <v>23.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -4964,70 +4964,70 @@
         <v>114</v>
       </c>
       <c r="H47" t="n">
-        <v>0.670571568181818</v>
+        <v>0.696565359090909</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6690181</v>
+        <v>0.67927885</v>
       </c>
       <c r="J47" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L47" t="n">
-        <v>0.772752895454546</v>
+        <v>0.768532663636364</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7773348</v>
+        <v>0.7582576</v>
       </c>
       <c r="N47" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O47" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
-        <v>0.80646615</v>
+        <v>0.800488072727273</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8073803</v>
+        <v>0.78640785</v>
       </c>
       <c r="R47" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S47" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T47" t="n">
-        <v>0.739371054545455</v>
+        <v>0.757912640909091</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7529495</v>
+        <v>0.7930711</v>
       </c>
       <c r="V47" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W47" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X47" t="n">
-        <v>0.753379576363636</v>
+        <v>0.734198461818182</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8124503</v>
+        <v>0.81139425</v>
       </c>
       <c r="Z47" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AA47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>52.2</v>
+        <v>51</v>
       </c>
       <c r="AC47" t="n">
-        <v>51.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="48">
@@ -5053,43 +5053,43 @@
         <v>114</v>
       </c>
       <c r="H48" t="n">
-        <v>0.707657845454545</v>
+        <v>0.725335740909091</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7204734</v>
+        <v>0.7268794</v>
       </c>
       <c r="J48" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K48" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L48" t="n">
-        <v>0.772606145454545</v>
+        <v>0.785327736363636</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7774662</v>
+        <v>0.80505875</v>
       </c>
       <c r="N48" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="P48" t="n">
-        <v>0.788798913636364</v>
+        <v>0.800946681818182</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.798539</v>
+        <v>0.8243745</v>
       </c>
       <c r="R48" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="S48" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="T48" t="n">
-        <v>0.579411704545455</v>
+        <v>0.580887</v>
       </c>
       <c r="U48" t="n">
         <v>0.5</v>
@@ -5101,7 +5101,7 @@
         <v>88</v>
       </c>
       <c r="X48" t="n">
-        <v>0.177037111818182</v>
+        <v>0.178456481818182</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -5113,10 +5113,10 @@
         <v>88</v>
       </c>
       <c r="AB48" t="n">
-        <v>72.2</v>
+        <v>48.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>63.8</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="49">
@@ -5142,70 +5142,70 @@
         <v>114</v>
       </c>
       <c r="H49" t="n">
-        <v>0.715634513636364</v>
+        <v>0.715608536363636</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7156345</v>
+        <v>0.72920275</v>
       </c>
       <c r="J49" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K49" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>0.787302363636364</v>
+        <v>0.782567577272727</v>
       </c>
       <c r="M49" t="n">
-        <v>0.7870884</v>
+        <v>0.78561975</v>
       </c>
       <c r="N49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P49" t="n">
-        <v>0.81295375</v>
+        <v>0.807903690909091</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8159645</v>
+        <v>0.82175765</v>
       </c>
       <c r="R49" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="S49" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="T49" t="n">
-        <v>0.773832818181818</v>
+        <v>0.765185340909091</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8149028</v>
+        <v>0.82625035</v>
       </c>
       <c r="V49" t="n">
+        <v>17</v>
+      </c>
+      <c r="W49" t="n">
         <v>8</v>
       </c>
-      <c r="W49" t="n">
-        <v>11</v>
-      </c>
       <c r="X49" t="n">
-        <v>0.687627078181818</v>
+        <v>0.680359518636364</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.8216022</v>
+        <v>0.80629195</v>
       </c>
       <c r="Z49" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AA49" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="50">
@@ -5231,70 +5231,70 @@
         <v>119</v>
       </c>
       <c r="H50" t="n">
-        <v>0.670734509090909</v>
+        <v>0.710688345454545</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6690181</v>
+        <v>0.69143785</v>
       </c>
       <c r="J50" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="K50" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L50" t="n">
-        <v>0.773192627272727</v>
+        <v>0.781439163636364</v>
       </c>
       <c r="M50" t="n">
-        <v>0.781889</v>
+        <v>0.7787137</v>
       </c>
       <c r="N50" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O50" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P50" t="n">
-        <v>0.807841959090909</v>
+        <v>0.808033181818182</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8162533</v>
+        <v>0.8107964</v>
       </c>
       <c r="R50" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="S50" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T50" t="n">
-        <v>0.733487586363636</v>
+        <v>0.754331795454545</v>
       </c>
       <c r="U50" t="n">
-        <v>0.7472889</v>
+        <v>0.7838124</v>
       </c>
       <c r="V50" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="W50" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="X50" t="n">
-        <v>0.757290155909091</v>
+        <v>0.741200678636364</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.8306401</v>
+        <v>0.8130099</v>
       </c>
       <c r="Z50" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB50" t="n">
-        <v>51.6</v>
+        <v>26.8</v>
       </c>
       <c r="AC50" t="n">
-        <v>40.4</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="51">
@@ -5320,43 +5320,43 @@
         <v>119</v>
       </c>
       <c r="H51" t="n">
-        <v>0.706125845454545</v>
+        <v>0.734314063636364</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7091142</v>
+        <v>0.7422008</v>
       </c>
       <c r="J51" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0.770352086363636</v>
+        <v>0.76102055</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7749554</v>
+        <v>0.7695177</v>
       </c>
       <c r="N51" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O51" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
-        <v>0.784671690909091</v>
+        <v>0.766190604545455</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7915274</v>
+        <v>0.77798955</v>
       </c>
       <c r="R51" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T51" t="n">
-        <v>0.576512754545455</v>
+        <v>0.572548109090909</v>
       </c>
       <c r="U51" t="n">
         <v>0.5</v>
@@ -5368,7 +5368,7 @@
         <v>89</v>
       </c>
       <c r="X51" t="n">
-        <v>0.169789911818182</v>
+        <v>0.159645645454545</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>89</v>
       </c>
       <c r="AB51" t="n">
-        <v>73.2</v>
+        <v>62.8</v>
       </c>
       <c r="AC51" t="n">
-        <v>72.2</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="52">
@@ -5409,70 +5409,70 @@
         <v>119</v>
       </c>
       <c r="H52" t="n">
-        <v>0.716973568181818</v>
+        <v>0.717912054545455</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7161079</v>
+        <v>0.7327744</v>
       </c>
       <c r="J52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K52" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L52" t="n">
-        <v>0.787375309090909</v>
+        <v>0.786037259090909</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7869955</v>
+        <v>0.7972774</v>
       </c>
       <c r="N52" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="P52" t="n">
-        <v>0.813376213636364</v>
+        <v>0.809628886363636</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8161423</v>
+        <v>0.823144</v>
       </c>
       <c r="R52" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="S52" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="T52" t="n">
-        <v>0.774088263636364</v>
+        <v>0.767048477272727</v>
       </c>
       <c r="U52" t="n">
-        <v>0.8149323</v>
+        <v>0.82697375</v>
       </c>
       <c r="V52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W52" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>0.682364137272727</v>
+        <v>0.679657364090909</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.8268272</v>
+        <v>0.81162625</v>
       </c>
       <c r="Z52" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA52" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>27.6</v>
+        <v>22.2</v>
       </c>
       <c r="AC52" t="n">
-        <v>22</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="53">
@@ -5498,70 +5498,70 @@
         <v>124</v>
       </c>
       <c r="H53" t="n">
-        <v>0.669489668181818</v>
+        <v>0.710425027272727</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6689256</v>
+        <v>0.69119</v>
       </c>
       <c r="J53" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="K53" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L53" t="n">
-        <v>0.773052145454545</v>
+        <v>0.781141831818182</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7745986</v>
+        <v>0.77823215</v>
       </c>
       <c r="N53" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O53" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P53" t="n">
-        <v>0.808356427272727</v>
+        <v>0.807472781818182</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8105155</v>
+        <v>0.81087935</v>
       </c>
       <c r="R53" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="S53" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="T53" t="n">
-        <v>0.728719827272727</v>
+        <v>0.754200259090909</v>
       </c>
       <c r="U53" t="n">
-        <v>0.7332866</v>
+        <v>0.7838124</v>
       </c>
       <c r="V53" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="W53" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="X53" t="n">
-        <v>0.755743275</v>
+        <v>0.741139642272727</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.827444</v>
+        <v>0.81284445</v>
       </c>
       <c r="Z53" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AA53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB53" t="n">
-        <v>54</v>
+        <v>28.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>50.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -5587,43 +5587,43 @@
         <v>124</v>
       </c>
       <c r="H54" t="n">
-        <v>0.703732872727273</v>
+        <v>0.734302231818182</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7037329</v>
+        <v>0.7422008</v>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0.766268245454545</v>
+        <v>0.760997068181818</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7698988</v>
+        <v>0.76931495</v>
       </c>
       <c r="N54" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O54" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P54" t="n">
-        <v>0.78037775</v>
+        <v>0.766174977272727</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7830665</v>
+        <v>0.77784515</v>
       </c>
       <c r="R54" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S54" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T54" t="n">
-        <v>0.574333986363636</v>
+        <v>0.572548109090909</v>
       </c>
       <c r="U54" t="n">
         <v>0.5</v>
@@ -5635,7 +5635,7 @@
         <v>90</v>
       </c>
       <c r="X54" t="n">
-        <v>0.165587611818182</v>
+        <v>0.159645645454545</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -5647,10 +5647,10 @@
         <v>90</v>
       </c>
       <c r="AB54" t="n">
-        <v>75.2</v>
+        <v>63.8</v>
       </c>
       <c r="AC54" t="n">
-        <v>75</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="55">
@@ -5676,70 +5676,70 @@
         <v>124</v>
       </c>
       <c r="H55" t="n">
-        <v>0.718849613636364</v>
+        <v>0.71642495</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7181654</v>
+        <v>0.7303627</v>
       </c>
       <c r="J55" t="n">
+        <v>19</v>
+      </c>
+      <c r="K55" t="n">
+        <v>8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.784563504545455</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.78676095</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16</v>
+      </c>
+      <c r="O55" t="n">
         <v>15</v>
       </c>
-      <c r="K55" t="n">
-        <v>21</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.787573513636364</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.7875362</v>
-      </c>
-      <c r="N55" t="n">
-        <v>21</v>
-      </c>
-      <c r="O55" t="n">
-        <v>20</v>
-      </c>
       <c r="P55" t="n">
-        <v>0.813766954545455</v>
+        <v>0.808751495454545</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8164454</v>
+        <v>0.8241147</v>
       </c>
       <c r="R55" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="S55" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="T55" t="n">
-        <v>0.775416631818182</v>
+        <v>0.765890804545455</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8137718</v>
+        <v>0.82633255</v>
       </c>
       <c r="V55" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X55" t="n">
-        <v>0.684754130454545</v>
+        <v>0.679382623181818</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.8266798</v>
+        <v>0.81129455</v>
       </c>
       <c r="Z55" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AA55" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AB55" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>19</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="56">
@@ -5765,70 +5765,70 @@
         <v>35</v>
       </c>
       <c r="H56" t="n">
-        <v>0.721593954545454</v>
+        <v>0.715276986363636</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7262956</v>
+        <v>0.71200015</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L56" t="n">
-        <v>0.791124159090909</v>
+        <v>0.779394104545455</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7918573</v>
+        <v>0.784533</v>
       </c>
       <c r="N56" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="O56" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P56" t="n">
-        <v>0.817786495454545</v>
+        <v>0.800231345454545</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8214934</v>
+        <v>0.81195245</v>
       </c>
       <c r="R56" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="S56" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T56" t="n">
-        <v>0.761482190909091</v>
+        <v>0.761124722727273</v>
       </c>
       <c r="U56" t="n">
-        <v>0.7800572</v>
+        <v>0.7893938</v>
       </c>
       <c r="V56" t="n">
         <v>25</v>
       </c>
       <c r="W56" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="X56" t="n">
-        <v>0.727324025909091</v>
+        <v>0.726427363181818</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.8050192</v>
+        <v>0.80307535</v>
       </c>
       <c r="Z56" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA56" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AB56" t="n">
-        <v>20.4</v>
+        <v>39.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>25.2</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="57">
@@ -5854,70 +5854,70 @@
         <v>44</v>
       </c>
       <c r="H57" t="n">
-        <v>0.712508559090909</v>
+        <v>0.706379909090909</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7199282</v>
+        <v>0.71388225</v>
       </c>
       <c r="J57" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K57" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="L57" t="n">
-        <v>0.784819859090909</v>
+        <v>0.781995336363636</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7864058</v>
+        <v>0.7779168</v>
       </c>
       <c r="N57" t="n">
         <v>30</v>
       </c>
       <c r="O57" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P57" t="n">
-        <v>0.813967559090909</v>
+        <v>0.807177945454545</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.8217213</v>
+        <v>0.80573395</v>
       </c>
       <c r="R57" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="S57" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="T57" t="n">
-        <v>0.755680322727273</v>
+        <v>0.754686295454545</v>
       </c>
       <c r="U57" t="n">
-        <v>0.7697061</v>
+        <v>0.78433475</v>
       </c>
       <c r="V57" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="W57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X57" t="n">
-        <v>0.731131751818182</v>
+        <v>0.7381101</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.8050192</v>
+        <v>0.80970335</v>
       </c>
       <c r="Z57" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AA57" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB57" t="n">
-        <v>32.4</v>
+        <v>33.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>31.8</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="58">
@@ -5943,70 +5943,70 @@
         <v>49</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7146106</v>
+        <v>0.699082140909091</v>
       </c>
       <c r="I58" t="n">
-        <v>0.718444</v>
+        <v>0.70436805</v>
       </c>
       <c r="J58" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K58" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L58" t="n">
-        <v>0.788929590909091</v>
+        <v>0.782362068181818</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7889296</v>
+        <v>0.77648705</v>
       </c>
       <c r="N58" t="n">
+        <v>26</v>
+      </c>
+      <c r="O58" t="n">
+        <v>47</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.809086236363636</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.8129629</v>
+      </c>
+      <c r="R58" t="n">
         <v>10</v>
       </c>
-      <c r="O58" t="n">
-        <v>16</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.816314495454545</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.8259465</v>
-      </c>
-      <c r="R58" t="n">
-        <v>17</v>
-      </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="T58" t="n">
-        <v>0.752928481818182</v>
+        <v>0.750150718181818</v>
       </c>
       <c r="U58" t="n">
-        <v>0.7595854</v>
+        <v>0.7773954</v>
       </c>
       <c r="V58" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="W58" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X58" t="n">
-        <v>0.736426467727273</v>
+        <v>0.737612745</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.8028778</v>
+        <v>0.81059265</v>
       </c>
       <c r="Z58" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AA58" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AB58" t="n">
-        <v>24</v>
+        <v>33.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>29.8</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="59">
@@ -6032,70 +6032,70 @@
         <v>54</v>
       </c>
       <c r="H59" t="n">
-        <v>0.705247890909091</v>
+        <v>0.694531618181818</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7052479</v>
+        <v>0.6940903</v>
       </c>
       <c r="J59" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K59" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L59" t="n">
-        <v>0.787048881818182</v>
+        <v>0.78458815</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7870489</v>
+        <v>0.7862749</v>
       </c>
       <c r="N59" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P59" t="n">
-        <v>0.816777122727273</v>
+        <v>0.812106881818182</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.8167771</v>
+        <v>0.81865245</v>
       </c>
       <c r="R59" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S59" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="T59" t="n">
-        <v>0.750110445454545</v>
+        <v>0.747540136363636</v>
       </c>
       <c r="U59" t="n">
-        <v>0.7586809</v>
+        <v>0.7737909</v>
       </c>
       <c r="V59" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W59" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X59" t="n">
-        <v>0.739029005909091</v>
+        <v>0.736835279545455</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.8078381</v>
+        <v>0.81060945</v>
       </c>
       <c r="Z59" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA59" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB59" t="n">
-        <v>30.8</v>
+        <v>33.2</v>
       </c>
       <c r="AC59" t="n">
-        <v>40.2</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="60">
@@ -6121,70 +6121,70 @@
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>0.702552895454545</v>
+        <v>0.673919172727273</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6989882</v>
+        <v>0.65635565</v>
       </c>
       <c r="J60" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K60" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L60" t="n">
-        <v>0.786828490909091</v>
+        <v>0.774131413636364</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7868285</v>
+        <v>0.77658185</v>
       </c>
       <c r="N60" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O60" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P60" t="n">
-        <v>0.818129627272727</v>
+        <v>0.805207040909091</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.8181296</v>
+        <v>0.80900165</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="S60" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="T60" t="n">
-        <v>0.747848927272727</v>
+        <v>0.746893709090909</v>
       </c>
       <c r="U60" t="n">
-        <v>0.7595354</v>
+        <v>0.77175705</v>
       </c>
       <c r="V60" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W60" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X60" t="n">
-        <v>0.739120534090909</v>
+        <v>0.738699044090909</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.8077284</v>
+        <v>0.810466</v>
       </c>
       <c r="Z60" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA60" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB60" t="n">
-        <v>31.6</v>
+        <v>42.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>41.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="61">
@@ -6210,70 +6210,70 @@
         <v>64</v>
       </c>
       <c r="H61" t="n">
-        <v>0.684179918181818</v>
+        <v>0.651508522727273</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6704611</v>
+        <v>0.6338741</v>
       </c>
       <c r="J61" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K61" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L61" t="n">
-        <v>0.783506877272727</v>
+        <v>0.762781336363636</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7834854</v>
+        <v>0.77525285</v>
       </c>
       <c r="N61" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="O61" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P61" t="n">
-        <v>0.815837486363636</v>
+        <v>0.798494981818182</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8258925</v>
+        <v>0.8087904</v>
       </c>
       <c r="R61" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="S61" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="T61" t="n">
-        <v>0.746526722727273</v>
+        <v>0.745084995454545</v>
       </c>
       <c r="U61" t="n">
-        <v>0.7605093</v>
+        <v>0.76868715</v>
       </c>
       <c r="V61" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W61" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="X61" t="n">
-        <v>0.738745700909091</v>
+        <v>0.739804238636364</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.8084119</v>
+        <v>0.8106884</v>
       </c>
       <c r="Z61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA61" t="n">
         <v>38</v>
       </c>
-      <c r="AA61" t="n">
-        <v>43</v>
-      </c>
       <c r="AB61" t="n">
-        <v>38.4</v>
+        <v>54</v>
       </c>
       <c r="AC61" t="n">
-        <v>39</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="62">
@@ -6299,70 +6299,70 @@
         <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>0.672278</v>
+        <v>0.63019455</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6544598</v>
+        <v>0.61527125</v>
       </c>
       <c r="J62" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K62" t="n">
         <v>67</v>
       </c>
       <c r="L62" t="n">
-        <v>0.777669481818182</v>
+        <v>0.749663913636364</v>
       </c>
       <c r="M62" t="n">
-        <v>0.775535</v>
+        <v>0.7561648</v>
       </c>
       <c r="N62" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O62" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P62" t="n">
-        <v>0.811534463636364</v>
+        <v>0.791719572727273</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8115345</v>
+        <v>0.8037613</v>
       </c>
       <c r="R62" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="S62" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="T62" t="n">
-        <v>0.745781840909091</v>
+        <v>0.745118068181818</v>
       </c>
       <c r="U62" t="n">
-        <v>0.7583349</v>
+        <v>0.7685708</v>
       </c>
       <c r="V62" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="W62" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="X62" t="n">
-        <v>0.738076440909091</v>
+        <v>0.740656208636364</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.8084119</v>
+        <v>0.8106884</v>
       </c>
       <c r="Z62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA62" t="n">
         <v>39</v>
       </c>
-      <c r="AA62" t="n">
-        <v>44</v>
-      </c>
       <c r="AB62" t="n">
-        <v>47.4</v>
+        <v>53.4</v>
       </c>
       <c r="AC62" t="n">
-        <v>54.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="63">
@@ -6388,70 +6388,70 @@
         <v>74</v>
       </c>
       <c r="H63" t="n">
-        <v>0.664552831818182</v>
+        <v>0.615338272727273</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6373751</v>
+        <v>0.58307735</v>
       </c>
       <c r="J63" t="n">
         <v>69</v>
       </c>
       <c r="K63" t="n">
+        <v>69</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.732471581818182</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.72918985</v>
+      </c>
+      <c r="N63" t="n">
+        <v>69</v>
+      </c>
+      <c r="O63" t="n">
         <v>70</v>
       </c>
-      <c r="L63" t="n">
-        <v>0.776728109090909</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.7767281</v>
-      </c>
-      <c r="N63" t="n">
-        <v>56</v>
-      </c>
-      <c r="O63" t="n">
-        <v>60</v>
-      </c>
       <c r="P63" t="n">
-        <v>0.812317772727273</v>
+        <v>0.780695122727273</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.8123178</v>
+        <v>0.78711065</v>
       </c>
       <c r="R63" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S63" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="T63" t="n">
-        <v>0.745538686363636</v>
+        <v>0.744766536363636</v>
       </c>
       <c r="U63" t="n">
-        <v>0.758459</v>
+        <v>0.7685708</v>
       </c>
       <c r="V63" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="W63" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="X63" t="n">
-        <v>0.740106291818182</v>
+        <v>0.740800015</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.8084119</v>
+        <v>0.81063335</v>
       </c>
       <c r="Z63" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
         <v>45</v>
       </c>
       <c r="AB63" t="n">
-        <v>46.8</v>
+        <v>54.6</v>
       </c>
       <c r="AC63" t="n">
-        <v>53.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="64">
@@ -6477,70 +6477,70 @@
         <v>79</v>
       </c>
       <c r="H64" t="n">
-        <v>0.638145604545455</v>
+        <v>0.597645877272727</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6381456</v>
+        <v>0.5680025</v>
       </c>
       <c r="J64" t="n">
         <v>71</v>
       </c>
       <c r="K64" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L64" t="n">
-        <v>0.76337615</v>
+        <v>0.71859795</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7677366</v>
+        <v>0.71635455</v>
       </c>
       <c r="N64" t="n">
+        <v>72</v>
+      </c>
+      <c r="O64" t="n">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.771175181818182</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.77787405</v>
+      </c>
+      <c r="R64" t="n">
+        <v>70</v>
+      </c>
+      <c r="S64" t="n">
         <v>71</v>
       </c>
-      <c r="O64" t="n">
-        <v>71</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.804302631818182</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.8082516</v>
-      </c>
-      <c r="R64" t="n">
-        <v>59</v>
-      </c>
-      <c r="S64" t="n">
-        <v>63</v>
-      </c>
       <c r="T64" t="n">
-        <v>0.74484855</v>
+        <v>0.744278359090909</v>
       </c>
       <c r="U64" t="n">
-        <v>0.7587121</v>
+        <v>0.76808455</v>
       </c>
       <c r="V64" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="W64" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X64" t="n">
-        <v>0.739656270454545</v>
+        <v>0.740548102272727</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.8084119</v>
+        <v>0.81063335</v>
       </c>
       <c r="Z64" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AA64" t="n">
         <v>46</v>
       </c>
       <c r="AB64" t="n">
-        <v>55.6</v>
+        <v>57.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>58.6</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="65">
@@ -6566,70 +6566,70 @@
         <v>84</v>
       </c>
       <c r="H65" t="n">
-        <v>0.626294645454545</v>
+        <v>0.581108854545455</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6262946</v>
+        <v>0.5519186</v>
       </c>
       <c r="J65" t="n">
         <v>73</v>
       </c>
       <c r="K65" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L65" t="n">
-        <v>0.756295513636364</v>
+        <v>0.695597240909091</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7562955</v>
+        <v>0.70091755</v>
       </c>
       <c r="N65" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O65" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P65" t="n">
-        <v>0.804227145454545</v>
+        <v>0.752782968181818</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8089406</v>
+        <v>0.75802075</v>
       </c>
       <c r="R65" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="S65" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="T65" t="n">
-        <v>0.735821945454545</v>
+        <v>0.743647436363636</v>
       </c>
       <c r="U65" t="n">
-        <v>0.7358219</v>
+        <v>0.76796385</v>
       </c>
       <c r="V65" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="W65" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="X65" t="n">
-        <v>0.76403419</v>
+        <v>0.740184649090909</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.8124092</v>
+        <v>0.81111445</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AA65" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB65" t="n">
-        <v>53.4</v>
+        <v>61.6</v>
       </c>
       <c r="AC65" t="n">
-        <v>56.6</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="66">
@@ -6655,70 +6655,70 @@
         <v>89</v>
       </c>
       <c r="H66" t="n">
-        <v>0.600713295454545</v>
+        <v>0.569031763636364</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5899198</v>
+        <v>0.5439098</v>
       </c>
       <c r="J66" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66" t="n">
         <v>76</v>
       </c>
       <c r="L66" t="n">
-        <v>0.736372154545455</v>
+        <v>0.680582677272727</v>
       </c>
       <c r="M66" t="n">
-        <v>0.7411613</v>
+        <v>0.69623395</v>
       </c>
       <c r="N66" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O66" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P66" t="n">
-        <v>0.791397890909091</v>
+        <v>0.741488818181818</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7987325</v>
+        <v>0.74316795</v>
       </c>
       <c r="R66" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S66" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T66" t="n">
-        <v>0.735128336363636</v>
+        <v>0.742977559090909</v>
       </c>
       <c r="U66" t="n">
-        <v>0.7351283</v>
+        <v>0.76664505</v>
       </c>
       <c r="V66" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="W66" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="X66" t="n">
-        <v>0.76385892</v>
+        <v>0.739998645454546</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.810996</v>
+        <v>0.81111445</v>
       </c>
       <c r="Z66" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AA66" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AB66" t="n">
-        <v>57.4</v>
+        <v>64.4</v>
       </c>
       <c r="AC66" t="n">
-        <v>63.6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -6744,10 +6744,10 @@
         <v>94</v>
       </c>
       <c r="H67" t="n">
-        <v>0.581833559090909</v>
+        <v>0.561565804545455</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5655015</v>
+        <v>0.53829685</v>
       </c>
       <c r="J67" t="n">
         <v>78</v>
@@ -6756,10 +6756,10 @@
         <v>78</v>
       </c>
       <c r="L67" t="n">
-        <v>0.714622872727273</v>
+        <v>0.669117340909091</v>
       </c>
       <c r="M67" t="n">
-        <v>0.7146229</v>
+        <v>0.6746954</v>
       </c>
       <c r="N67" t="n">
         <v>78</v>
@@ -6768,46 +6768,46 @@
         <v>78</v>
       </c>
       <c r="P67" t="n">
-        <v>0.774848413636364</v>
+        <v>0.730862586363636</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7748484</v>
+        <v>0.72060145</v>
       </c>
       <c r="R67" t="n">
         <v>78</v>
       </c>
       <c r="S67" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T67" t="n">
-        <v>0.733849927272727</v>
+        <v>0.742905259090909</v>
       </c>
       <c r="U67" t="n">
-        <v>0.7336076</v>
+        <v>0.76664505</v>
       </c>
       <c r="V67" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W67" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="X67" t="n">
-        <v>0.762764040909091</v>
+        <v>0.740192554090909</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.8120062</v>
+        <v>0.81111445</v>
       </c>
       <c r="Z67" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AB67" t="n">
-        <v>60.6</v>
+        <v>65</v>
       </c>
       <c r="AC67" t="n">
-        <v>63.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
@@ -6833,10 +6833,10 @@
         <v>99</v>
       </c>
       <c r="H68" t="n">
-        <v>0.571528709090909</v>
+        <v>0.55606335</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5541586</v>
+        <v>0.5345175</v>
       </c>
       <c r="J68" t="n">
         <v>80</v>
@@ -6845,58 +6845,58 @@
         <v>80</v>
       </c>
       <c r="L68" t="n">
-        <v>0.699347990909091</v>
+        <v>0.662936663636364</v>
       </c>
       <c r="M68" t="n">
-        <v>0.703426</v>
+        <v>0.66155885</v>
       </c>
       <c r="N68" t="n">
         <v>80</v>
       </c>
       <c r="O68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P68" t="n">
-        <v>0.762284909090909</v>
+        <v>0.726607963636364</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7622849</v>
+        <v>0.7167081</v>
       </c>
       <c r="R68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S68" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T68" t="n">
-        <v>0.733176254545455</v>
+        <v>0.742503768181818</v>
       </c>
       <c r="U68" t="n">
-        <v>0.7331763</v>
+        <v>0.76640785</v>
       </c>
       <c r="V68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W68" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="X68" t="n">
-        <v>0.761835006818182</v>
+        <v>0.740049411818182</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.8118663</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z68" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA68" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AB68" t="n">
-        <v>63.2</v>
+        <v>67.2</v>
       </c>
       <c r="AC68" t="n">
-        <v>66.2</v>
+        <v>66.4</v>
       </c>
     </row>
     <row r="69">
@@ -6922,10 +6922,10 @@
         <v>104</v>
       </c>
       <c r="H69" t="n">
-        <v>0.562196027272727</v>
+        <v>0.551687518181818</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5431898</v>
+        <v>0.5324045</v>
       </c>
       <c r="J69" t="n">
         <v>82</v>
@@ -6934,10 +6934,10 @@
         <v>82</v>
       </c>
       <c r="L69" t="n">
-        <v>0.686614740909091</v>
+        <v>0.657482218181818</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6974412</v>
+        <v>0.655108</v>
       </c>
       <c r="N69" t="n">
         <v>82</v>
@@ -6946,46 +6946,46 @@
         <v>82</v>
       </c>
       <c r="P69" t="n">
-        <v>0.752831</v>
+        <v>0.722780640909091</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.752831</v>
+        <v>0.71505745</v>
       </c>
       <c r="R69" t="n">
         <v>82</v>
       </c>
       <c r="S69" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T69" t="n">
-        <v>0.73310835</v>
+        <v>0.7423357</v>
       </c>
       <c r="U69" t="n">
-        <v>0.7325238</v>
+        <v>0.767645</v>
       </c>
       <c r="V69" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="W69" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="X69" t="n">
-        <v>0.761844561818182</v>
+        <v>0.740306582272727</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.8118663</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA69" t="n">
         <v>15</v>
       </c>
-      <c r="AA69" t="n">
-        <v>30</v>
-      </c>
       <c r="AB69" t="n">
-        <v>64.4</v>
+        <v>67.6</v>
       </c>
       <c r="AC69" t="n">
-        <v>67.8</v>
+        <v>66.4</v>
       </c>
     </row>
     <row r="70">
@@ -7011,10 +7011,10 @@
         <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>0.559422736363636</v>
+        <v>0.544952827272727</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5383724</v>
+        <v>0.52827655</v>
       </c>
       <c r="J70" t="n">
         <v>84</v>
@@ -7023,58 +7023,58 @@
         <v>84</v>
       </c>
       <c r="L70" t="n">
-        <v>0.680929322727273</v>
+        <v>0.644753809090909</v>
       </c>
       <c r="M70" t="n">
-        <v>0.6858364</v>
+        <v>0.64135125</v>
       </c>
       <c r="N70" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O70" t="n">
         <v>84</v>
       </c>
       <c r="P70" t="n">
-        <v>0.748762022727273</v>
+        <v>0.709556195454546</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.748762</v>
+        <v>0.7141133</v>
       </c>
       <c r="R70" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S70" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T70" t="n">
-        <v>0.729460422727273</v>
+        <v>0.742319427272727</v>
       </c>
       <c r="U70" t="n">
-        <v>0.7268715</v>
+        <v>0.767645</v>
       </c>
       <c r="V70" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="W70" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="X70" t="n">
-        <v>0.761390405</v>
+        <v>0.740287825909091</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.8165351</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z70" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>67</v>
+        <v>69.6</v>
       </c>
       <c r="AC70" t="n">
-        <v>66.6</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="71">
@@ -7100,70 +7100,70 @@
         <v>114</v>
       </c>
       <c r="H71" t="n">
-        <v>0.553318981818182</v>
+        <v>0.541816254545455</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5344436</v>
+        <v>0.5268445</v>
       </c>
       <c r="J71" t="n">
         <v>86</v>
       </c>
       <c r="K71" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L71" t="n">
-        <v>0.668996409090909</v>
+        <v>0.639991804545455</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6689964</v>
+        <v>0.6338477</v>
       </c>
       <c r="N71" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O71" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P71" t="n">
-        <v>0.738433286363636</v>
+        <v>0.706580668181818</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7389002</v>
+        <v>0.7139124</v>
       </c>
       <c r="R71" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S71" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T71" t="n">
-        <v>0.72960785</v>
+        <v>0.742108090909091</v>
       </c>
       <c r="U71" t="n">
-        <v>0.7263976</v>
+        <v>0.767645</v>
       </c>
       <c r="V71" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="W71" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X71" t="n">
-        <v>0.761775134545455</v>
+        <v>0.740361994090909</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.8158344</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z71" t="n">
         <v>17</v>
       </c>
       <c r="AA71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB71" t="n">
-        <v>68.2</v>
+        <v>70</v>
       </c>
       <c r="AC71" t="n">
-        <v>68.8</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="72">
@@ -7189,70 +7189,70 @@
         <v>119</v>
       </c>
       <c r="H72" t="n">
-        <v>0.550120881818182</v>
+        <v>0.540452109090909</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5329792</v>
+        <v>0.52512455</v>
       </c>
       <c r="J72" t="n">
         <v>88</v>
       </c>
       <c r="K72" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L72" t="n">
-        <v>0.663515527272727</v>
+        <v>0.636365809090909</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6595529</v>
+        <v>0.6265428</v>
       </c>
       <c r="N72" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O72" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P72" t="n">
-        <v>0.734786640909091</v>
+        <v>0.70192575</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7368596</v>
+        <v>0.71487485</v>
       </c>
       <c r="R72" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S72" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T72" t="n">
-        <v>0.722509445454545</v>
+        <v>0.742452054545455</v>
       </c>
       <c r="U72" t="n">
-        <v>0.7097029</v>
+        <v>0.7697864</v>
       </c>
       <c r="V72" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W72" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="X72" t="n">
-        <v>0.768278485909091</v>
+        <v>0.743543791363636</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.8117842</v>
+        <v>0.8120219</v>
       </c>
       <c r="Z72" t="n">
         <v>3</v>
       </c>
       <c r="AA72" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="n">
         <v>67.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>73.8</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="73">
@@ -7278,10 +7278,10 @@
         <v>124</v>
       </c>
       <c r="H73" t="n">
-        <v>0.547692195454546</v>
+        <v>0.535693409090909</v>
       </c>
       <c r="I73" t="n">
-        <v>0.530177</v>
+        <v>0.5226083</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
@@ -7290,10 +7290,10 @@
         <v>90</v>
       </c>
       <c r="L73" t="n">
-        <v>0.6570324</v>
+        <v>0.627730036363636</v>
       </c>
       <c r="M73" t="n">
-        <v>0.6466552</v>
+        <v>0.61513595</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7302,10 +7302,10 @@
         <v>90</v>
       </c>
       <c r="P73" t="n">
-        <v>0.728641113636364</v>
+        <v>0.693091013636364</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.734664</v>
+        <v>0.70242985</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
@@ -7314,34 +7314,34 @@
         <v>90</v>
       </c>
       <c r="T73" t="n">
-        <v>0.721646690909091</v>
+        <v>0.742150113636364</v>
       </c>
       <c r="U73" t="n">
-        <v>0.7097029</v>
+        <v>0.7697864</v>
       </c>
       <c r="V73" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="W73" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="X73" t="n">
-        <v>0.768109060454545</v>
+        <v>0.743172195909091</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.8098034</v>
+        <v>0.8116904</v>
       </c>
       <c r="Z73" t="n">
         <v>4</v>
       </c>
       <c r="AA73" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>68.8</v>
+        <v>69.6</v>
       </c>
       <c r="AC73" t="n">
-        <v>75.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74">
@@ -7367,70 +7367,70 @@
         <v>35</v>
       </c>
       <c r="H74" t="n">
-        <v>0.720790904545455</v>
+        <v>0.715214118181818</v>
       </c>
       <c r="I74" t="n">
-        <v>0.725828</v>
+        <v>0.7121633</v>
       </c>
       <c r="J74" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K74" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L74" t="n">
-        <v>0.790834859090909</v>
+        <v>0.779658945454546</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7917851</v>
+        <v>0.78443925</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="O74" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P74" t="n">
-        <v>0.818268304545455</v>
+        <v>0.80083405</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.8214192</v>
+        <v>0.8120331</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="S74" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T74" t="n">
-        <v>0.763857713636364</v>
+        <v>0.763105859090909</v>
       </c>
       <c r="U74" t="n">
-        <v>0.7839094</v>
+        <v>0.79241825</v>
       </c>
       <c r="V74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W74" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="X74" t="n">
-        <v>0.727388471363636</v>
+        <v>0.726643590454545</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.8050192</v>
+        <v>0.8030301</v>
       </c>
       <c r="Z74" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AA74" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AB74" t="n">
-        <v>19.8</v>
+        <v>37</v>
       </c>
       <c r="AC74" t="n">
-        <v>26.4</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="75">
@@ -7456,70 +7456,70 @@
         <v>44</v>
       </c>
       <c r="H75" t="n">
-        <v>0.711970677272727</v>
+        <v>0.705546345454545</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7198443</v>
+        <v>0.71400365</v>
       </c>
       <c r="J75" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L75" t="n">
-        <v>0.784598159090909</v>
+        <v>0.78232125</v>
       </c>
       <c r="M75" t="n">
-        <v>0.7850716</v>
+        <v>0.7784007</v>
       </c>
       <c r="N75" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O75" t="n">
         <v>37</v>
       </c>
       <c r="P75" t="n">
-        <v>0.813999259090909</v>
+        <v>0.807858463636364</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.8214662</v>
+        <v>0.8045848</v>
       </c>
       <c r="R75" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="S75" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="T75" t="n">
-        <v>0.756259636363636</v>
+        <v>0.755714581818182</v>
       </c>
       <c r="U75" t="n">
-        <v>0.772901</v>
+        <v>0.78734495</v>
       </c>
       <c r="V75" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="W75" t="n">
+        <v>40</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.73693113</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.8097582</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB75" t="n">
         <v>33</v>
       </c>
-      <c r="X75" t="n">
-        <v>0.728912587272727</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0.8050192</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>49</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>33.2</v>
-      </c>
       <c r="AC75" t="n">
-        <v>33.8</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="76">
@@ -7545,70 +7545,70 @@
         <v>49</v>
       </c>
       <c r="H76" t="n">
-        <v>0.714124795454545</v>
+        <v>0.697024172727273</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7158954</v>
+        <v>0.70422525</v>
       </c>
       <c r="J76" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="K76" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L76" t="n">
-        <v>0.788724354545455</v>
+        <v>0.782160618181818</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7887244</v>
+        <v>0.77540125</v>
       </c>
       <c r="N76" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O76" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="P76" t="n">
-        <v>0.816841840909091</v>
+        <v>0.809356504545454</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.825994</v>
+        <v>0.8128146</v>
       </c>
       <c r="R76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S76" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="T76" t="n">
-        <v>0.754983359090909</v>
+        <v>0.752124754545455</v>
       </c>
       <c r="U76" t="n">
-        <v>0.7687018</v>
+        <v>0.7797629</v>
       </c>
       <c r="V76" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="W76" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="X76" t="n">
-        <v>0.736800373181818</v>
+        <v>0.738170773636364</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.80526</v>
+        <v>0.81066435</v>
       </c>
       <c r="Z76" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AA76" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AB76" t="n">
-        <v>24</v>
+        <v>34.4</v>
       </c>
       <c r="AC76" t="n">
-        <v>29.2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
@@ -7634,70 +7634,70 @@
         <v>54</v>
       </c>
       <c r="H77" t="n">
-        <v>0.703413186363636</v>
+        <v>0.69144335</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7009498</v>
+        <v>0.69393545</v>
       </c>
       <c r="J77" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L77" t="n">
-        <v>0.786990227272727</v>
+        <v>0.784062831818182</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7869902</v>
+        <v>0.7858422</v>
       </c>
       <c r="N77" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O77" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P77" t="n">
-        <v>0.817171468181818</v>
+        <v>0.812253159090909</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.8171715</v>
+        <v>0.8185152</v>
       </c>
       <c r="R77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T77" t="n">
-        <v>0.752713359090909</v>
+        <v>0.749671059090909</v>
       </c>
       <c r="U77" t="n">
-        <v>0.7612556</v>
+        <v>0.77797625</v>
       </c>
       <c r="V77" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="W77" t="n">
+        <v>45</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.737551568181818</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.81066435</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="AC77" t="n">
         <v>36</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.739916237272727</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0.8078381</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>52</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>39.4</v>
       </c>
     </row>
     <row r="78">
@@ -7723,70 +7723,70 @@
         <v>59</v>
       </c>
       <c r="H78" t="n">
-        <v>0.700919981818182</v>
+        <v>0.669637672727273</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6991342</v>
+        <v>0.653339</v>
       </c>
       <c r="J78" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K78" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L78" t="n">
-        <v>0.787116377272727</v>
+        <v>0.774074104545455</v>
       </c>
       <c r="M78" t="n">
-        <v>0.7871164</v>
+        <v>0.7766754</v>
       </c>
       <c r="N78" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O78" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="P78" t="n">
-        <v>0.819262827272727</v>
+        <v>0.805680595454546</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.8192628</v>
+        <v>0.8090592</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="S78" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="T78" t="n">
-        <v>0.75001445</v>
+        <v>0.748901977272727</v>
       </c>
       <c r="U78" t="n">
-        <v>0.7604812</v>
+        <v>0.7749111</v>
       </c>
       <c r="V78" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="W78" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X78" t="n">
-        <v>0.740508086363636</v>
+        <v>0.739474405909091</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.8076188</v>
+        <v>0.810466</v>
       </c>
       <c r="Z78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AB78" t="n">
-        <v>28.2</v>
+        <v>42.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>38.6</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="79">
@@ -7812,70 +7812,70 @@
         <v>64</v>
       </c>
       <c r="H79" t="n">
-        <v>0.681976845454545</v>
+        <v>0.646938209090909</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6707495</v>
+        <v>0.6323425</v>
       </c>
       <c r="J79" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K79" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L79" t="n">
-        <v>0.783493236363636</v>
+        <v>0.760980259090909</v>
       </c>
       <c r="M79" t="n">
-        <v>0.7834932</v>
+        <v>0.77221075</v>
       </c>
       <c r="N79" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O79" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
-        <v>0.816434295454545</v>
+        <v>0.798077054545455</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.826183</v>
+        <v>0.80895155</v>
       </c>
       <c r="R79" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="T79" t="n">
-        <v>0.747988736363636</v>
+        <v>0.746618868181818</v>
       </c>
       <c r="U79" t="n">
-        <v>0.7610265</v>
+        <v>0.77088815</v>
       </c>
       <c r="V79" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="W79" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="X79" t="n">
-        <v>0.739348275</v>
+        <v>0.739945194090909</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.8084119</v>
+        <v>0.8106165</v>
       </c>
       <c r="Z79" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA79" t="n">
         <v>47</v>
       </c>
       <c r="AB79" t="n">
-        <v>36.8</v>
+        <v>53.8</v>
       </c>
       <c r="AC79" t="n">
-        <v>38.4</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="80">
@@ -7901,70 +7901,70 @@
         <v>69</v>
       </c>
       <c r="H80" t="n">
-        <v>0.669445181818182</v>
+        <v>0.629076659090909</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6376043</v>
+        <v>0.61348445</v>
       </c>
       <c r="J80" t="n">
         <v>68</v>
       </c>
       <c r="K80" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L80" t="n">
-        <v>0.777505872727273</v>
+        <v>0.749812386363636</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7761909</v>
+        <v>0.75575925</v>
       </c>
       <c r="N80" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="O80" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P80" t="n">
-        <v>0.812158190909091</v>
+        <v>0.792046890909091</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.8121582</v>
+        <v>0.80535295</v>
       </c>
       <c r="R80" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="S80" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T80" t="n">
-        <v>0.747448663636364</v>
+        <v>0.746847709090909</v>
       </c>
       <c r="U80" t="n">
-        <v>0.7610265</v>
+        <v>0.77088815</v>
       </c>
       <c r="V80" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="W80" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="X80" t="n">
-        <v>0.739098822727273</v>
+        <v>0.741488935</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.8084119</v>
+        <v>0.8106884</v>
       </c>
       <c r="Z80" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="AA80" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB80" t="n">
-        <v>46.8</v>
+        <v>50.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>52.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81">
@@ -7990,70 +7990,70 @@
         <v>74</v>
       </c>
       <c r="H81" t="n">
-        <v>0.661746631818182</v>
+        <v>0.610033813636364</v>
       </c>
       <c r="I81" t="n">
-        <v>0.637274</v>
+        <v>0.58277175</v>
       </c>
       <c r="J81" t="n">
         <v>70</v>
       </c>
       <c r="K81" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L81" t="n">
-        <v>0.775783827272727</v>
+        <v>0.731320195454545</v>
       </c>
       <c r="M81" t="n">
-        <v>0.7757838</v>
+        <v>0.73430565</v>
       </c>
       <c r="N81" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O81" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P81" t="n">
-        <v>0.812456795454545</v>
+        <v>0.780386181818182</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.8173511</v>
+        <v>0.78396245</v>
       </c>
       <c r="R81" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="S81" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="T81" t="n">
-        <v>0.747124959090909</v>
+        <v>0.746380004545455</v>
       </c>
       <c r="U81" t="n">
-        <v>0.7605093</v>
+        <v>0.7703267</v>
       </c>
       <c r="V81" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W81" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="X81" t="n">
-        <v>0.740138791363636</v>
+        <v>0.741110271818182</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.8084119</v>
+        <v>0.8106884</v>
       </c>
       <c r="Z81" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AA81" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AB81" t="n">
-        <v>46.6</v>
+        <v>53.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>50.8</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="82">
@@ -8079,70 +8079,70 @@
         <v>79</v>
       </c>
       <c r="H82" t="n">
-        <v>0.636816177272727</v>
+        <v>0.596202877272727</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6368162</v>
+        <v>0.56836675</v>
       </c>
       <c r="J82" t="n">
         <v>72</v>
       </c>
       <c r="K82" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L82" t="n">
-        <v>0.762859740909091</v>
+        <v>0.719190113636364</v>
       </c>
       <c r="M82" t="n">
-        <v>0.7633909</v>
+        <v>0.72050115</v>
       </c>
       <c r="N82" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O82" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P82" t="n">
-        <v>0.804640613636364</v>
+        <v>0.771884563636364</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.8085929</v>
+        <v>0.78064455</v>
       </c>
       <c r="R82" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S82" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T82" t="n">
-        <v>0.746399440909091</v>
+        <v>0.745857</v>
       </c>
       <c r="U82" t="n">
-        <v>0.7597248</v>
+        <v>0.77057205</v>
       </c>
       <c r="V82" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="W82" t="n">
+        <v>53</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.740520137272727</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.8106884</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA82" t="n">
         <v>42</v>
       </c>
-      <c r="X82" t="n">
-        <v>0.739924765</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>0.8084119</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>50</v>
-      </c>
       <c r="AB82" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="AC82" t="n">
-        <v>59.6</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="83">
@@ -8168,70 +8168,70 @@
         <v>84</v>
       </c>
       <c r="H83" t="n">
-        <v>0.624770609090909</v>
+        <v>0.580317827272727</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6247706</v>
+        <v>0.55338055</v>
       </c>
       <c r="J83" t="n">
         <v>74</v>
       </c>
       <c r="K83" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L83" t="n">
-        <v>0.756127095454545</v>
+        <v>0.696606513636364</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7561271</v>
+        <v>0.7012547</v>
       </c>
       <c r="N83" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O83" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P83" t="n">
-        <v>0.804861654545455</v>
+        <v>0.754017172727273</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8109416</v>
+        <v>0.76215765</v>
       </c>
       <c r="R83" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="S83" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="T83" t="n">
-        <v>0.738622118181818</v>
+        <v>0.745293945454545</v>
       </c>
       <c r="U83" t="n">
-        <v>0.7386221</v>
+        <v>0.7697107</v>
       </c>
       <c r="V83" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W83" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X83" t="n">
-        <v>0.765276422727273</v>
+        <v>0.740490624090909</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.8123892</v>
+        <v>0.81116955</v>
       </c>
       <c r="Z83" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA83" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB83" t="n">
-        <v>52.4</v>
+        <v>58</v>
       </c>
       <c r="AC83" t="n">
-        <v>55</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="84">
@@ -8257,70 +8257,70 @@
         <v>89</v>
       </c>
       <c r="H84" t="n">
-        <v>0.598982359090909</v>
+        <v>0.569056131818182</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5913263</v>
+        <v>0.54495715</v>
       </c>
       <c r="J84" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K84" t="n">
         <v>75</v>
       </c>
       <c r="L84" t="n">
-        <v>0.735900486363636</v>
+        <v>0.682250372727273</v>
       </c>
       <c r="M84" t="n">
-        <v>0.7380966</v>
+        <v>0.70124795</v>
       </c>
       <c r="N84" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O84" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P84" t="n">
-        <v>0.791851354545455</v>
+        <v>0.743157840909091</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.8004907</v>
+        <v>0.7493168</v>
       </c>
       <c r="R84" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S84" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T84" t="n">
-        <v>0.737980536363636</v>
+        <v>0.744726336363636</v>
       </c>
       <c r="U84" t="n">
-        <v>0.7379805</v>
+        <v>0.76808455</v>
       </c>
       <c r="V84" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W84" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="X84" t="n">
-        <v>0.765835481363636</v>
+        <v>0.740805220909091</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.8115536</v>
+        <v>0.81116955</v>
       </c>
       <c r="Z84" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA84" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AB84" t="n">
-        <v>56</v>
+        <v>58.6</v>
       </c>
       <c r="AC84" t="n">
-        <v>61.8</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="85">
@@ -8346,10 +8346,10 @@
         <v>94</v>
       </c>
       <c r="H85" t="n">
-        <v>0.582817036363636</v>
+        <v>0.562781836363636</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5686112</v>
+        <v>0.5406354</v>
       </c>
       <c r="J85" t="n">
         <v>77</v>
@@ -8358,10 +8358,10 @@
         <v>77</v>
       </c>
       <c r="L85" t="n">
-        <v>0.717187004545455</v>
+        <v>0.672316945454545</v>
       </c>
       <c r="M85" t="n">
-        <v>0.717187</v>
+        <v>0.6824485</v>
       </c>
       <c r="N85" t="n">
         <v>77</v>
@@ -8370,10 +8370,10 @@
         <v>77</v>
       </c>
       <c r="P85" t="n">
-        <v>0.777251895454545</v>
+        <v>0.734036568181818</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7772519</v>
+        <v>0.7248509</v>
       </c>
       <c r="R85" t="n">
         <v>77</v>
@@ -8382,34 +8382,34 @@
         <v>77</v>
       </c>
       <c r="T85" t="n">
-        <v>0.736150090909091</v>
+        <v>0.744621031818182</v>
       </c>
       <c r="U85" t="n">
-        <v>0.7361501</v>
+        <v>0.76784265</v>
       </c>
       <c r="V85" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="W85" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="X85" t="n">
-        <v>0.763395864545454</v>
+        <v>0.740889624090909</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.8119906</v>
+        <v>0.8110976</v>
       </c>
       <c r="Z85" t="n">
         <v>9</v>
       </c>
       <c r="AA85" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB85" t="n">
-        <v>58.6</v>
+        <v>59.8</v>
       </c>
       <c r="AC85" t="n">
-        <v>62</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="86">
@@ -8435,10 +8435,10 @@
         <v>99</v>
       </c>
       <c r="H86" t="n">
-        <v>0.573332218181818</v>
+        <v>0.557334018181818</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5568286</v>
+        <v>0.53678535</v>
       </c>
       <c r="J86" t="n">
         <v>79</v>
@@ -8447,10 +8447,10 @@
         <v>79</v>
       </c>
       <c r="L86" t="n">
-        <v>0.703262559090909</v>
+        <v>0.666105886363636</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7071729</v>
+        <v>0.66966305</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
@@ -8459,46 +8459,46 @@
         <v>79</v>
       </c>
       <c r="P86" t="n">
-        <v>0.765462954545455</v>
+        <v>0.730040327272727</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.765463</v>
+        <v>0.7243308</v>
       </c>
       <c r="R86" t="n">
         <v>79</v>
       </c>
       <c r="S86" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T86" t="n">
-        <v>0.735510968181818</v>
+        <v>0.743754545454545</v>
       </c>
       <c r="U86" t="n">
-        <v>0.735511</v>
+        <v>0.76820415</v>
       </c>
       <c r="V86" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="W86" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="X86" t="n">
-        <v>0.762063864090909</v>
+        <v>0.740094684090909</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.8119906</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z86" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA86" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB86" t="n">
-        <v>60.8</v>
+        <v>64.8</v>
       </c>
       <c r="AC86" t="n">
-        <v>63.8</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="87">
@@ -8524,10 +8524,10 @@
         <v>104</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5641194</v>
+        <v>0.553759586363636</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5447587</v>
+        <v>0.53396465</v>
       </c>
       <c r="J87" t="n">
         <v>81</v>
@@ -8536,58 +8536,58 @@
         <v>81</v>
       </c>
       <c r="L87" t="n">
-        <v>0.69049085</v>
+        <v>0.661753790909091</v>
       </c>
       <c r="M87" t="n">
-        <v>0.7020479</v>
+        <v>0.6633007</v>
       </c>
       <c r="N87" t="n">
         <v>81</v>
       </c>
       <c r="O87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P87" t="n">
-        <v>0.755857295454545</v>
+        <v>0.727308281818182</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7558573</v>
+        <v>0.7226845</v>
       </c>
       <c r="R87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S87" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T87" t="n">
-        <v>0.735318159090909</v>
+        <v>0.743462690909091</v>
       </c>
       <c r="U87" t="n">
-        <v>0.7353182</v>
+        <v>0.7683579</v>
       </c>
       <c r="V87" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="W87" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X87" t="n">
-        <v>0.761963334545455</v>
+        <v>0.740307782272727</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.811851</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z87" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA87" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AB87" t="n">
-        <v>62.6</v>
+        <v>65.4</v>
       </c>
       <c r="AC87" t="n">
-        <v>66.4</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="88">
@@ -8613,10 +8613,10 @@
         <v>109</v>
       </c>
       <c r="H88" t="n">
-        <v>0.560619413636364</v>
+        <v>0.546747031818182</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5405661</v>
+        <v>0.52967415</v>
       </c>
       <c r="J88" t="n">
         <v>83</v>
@@ -8625,10 +8625,10 @@
         <v>83</v>
       </c>
       <c r="L88" t="n">
-        <v>0.683963290909091</v>
+        <v>0.649657695454545</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6893493</v>
+        <v>0.64725925</v>
       </c>
       <c r="N88" t="n">
         <v>83</v>
@@ -8637,46 +8637,46 @@
         <v>83</v>
       </c>
       <c r="P88" t="n">
-        <v>0.751863809090909</v>
+        <v>0.714658777272727</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7518638</v>
+        <v>0.7148882</v>
       </c>
       <c r="R88" t="n">
         <v>83</v>
       </c>
       <c r="S88" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T88" t="n">
-        <v>0.731711409090909</v>
+        <v>0.743513922727273</v>
       </c>
       <c r="U88" t="n">
-        <v>0.7317114</v>
+        <v>0.7683579</v>
       </c>
       <c r="V88" t="n">
+        <v>65</v>
+      </c>
+      <c r="W88" t="n">
         <v>63</v>
       </c>
-      <c r="W88" t="n">
-        <v>65</v>
-      </c>
       <c r="X88" t="n">
-        <v>0.762039756363636</v>
+        <v>0.740349606363636</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.8172486</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z88" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA88" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AB88" t="n">
-        <v>65</v>
+        <v>66.4</v>
       </c>
       <c r="AC88" t="n">
-        <v>65.2</v>
+        <v>66.6</v>
       </c>
     </row>
     <row r="89">
@@ -8702,10 +8702,10 @@
         <v>114</v>
       </c>
       <c r="H89" t="n">
-        <v>0.555115854545455</v>
+        <v>0.543775127272727</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5369677</v>
+        <v>0.5282742</v>
       </c>
       <c r="J89" t="n">
         <v>85</v>
@@ -8714,58 +8714,58 @@
         <v>85</v>
       </c>
       <c r="L89" t="n">
-        <v>0.674932959090909</v>
+        <v>0.644792290909091</v>
       </c>
       <c r="M89" t="n">
-        <v>0.6798018</v>
+        <v>0.63924895</v>
       </c>
       <c r="N89" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O89" t="n">
         <v>85</v>
       </c>
       <c r="P89" t="n">
-        <v>0.743865990909091</v>
+        <v>0.711512004545455</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.743866</v>
+        <v>0.7147439</v>
       </c>
       <c r="R89" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S89" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T89" t="n">
-        <v>0.731946959090909</v>
+        <v>0.743157972727273</v>
       </c>
       <c r="U89" t="n">
-        <v>0.731947</v>
+        <v>0.76788185</v>
       </c>
       <c r="V89" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W89" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="X89" t="n">
-        <v>0.763151687727273</v>
+        <v>0.740670551818182</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.8171072</v>
+        <v>0.81133915</v>
       </c>
       <c r="Z89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA89" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB89" t="n">
-        <v>65.4</v>
+        <v>66.4</v>
       </c>
       <c r="AC89" t="n">
-        <v>66.4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
@@ -8791,70 +8791,70 @@
         <v>119</v>
       </c>
       <c r="H90" t="n">
-        <v>0.552321681818182</v>
+        <v>0.541751563636364</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5353855</v>
+        <v>0.52621095</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
       </c>
       <c r="K90" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L90" t="n">
-        <v>0.670078990909091</v>
+        <v>0.639432859090909</v>
       </c>
       <c r="M90" t="n">
-        <v>0.670079</v>
+        <v>0.63130775</v>
       </c>
       <c r="N90" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O90" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P90" t="n">
-        <v>0.740920013636364</v>
+        <v>0.705953340909091</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.74092</v>
+        <v>0.71704635</v>
       </c>
       <c r="R90" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S90" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T90" t="n">
-        <v>0.725606677272727</v>
+        <v>0.744158068181818</v>
       </c>
       <c r="U90" t="n">
-        <v>0.7137858</v>
+        <v>0.7705937</v>
       </c>
       <c r="V90" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W90" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="X90" t="n">
-        <v>0.769754393181818</v>
+        <v>0.745388035454545</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.819006</v>
+        <v>0.8125134</v>
       </c>
       <c r="Z90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA90" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB90" t="n">
-        <v>65.6</v>
+        <v>64.6</v>
       </c>
       <c r="AC90" t="n">
-        <v>67.4</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="91">
@@ -8880,70 +8880,70 @@
         <v>124</v>
       </c>
       <c r="H91" t="n">
-        <v>0.549740427272727</v>
+        <v>0.536809518181818</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5331384</v>
+        <v>0.52423265</v>
       </c>
       <c r="J91" t="n">
         <v>89</v>
       </c>
       <c r="K91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L91" t="n">
-        <v>0.663694390909091</v>
+        <v>0.630828490909091</v>
       </c>
       <c r="M91" t="n">
-        <v>0.6613932</v>
+        <v>0.62262895</v>
       </c>
       <c r="N91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P91" t="n">
-        <v>0.735234040909091</v>
+        <v>0.697474645454546</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.7371281</v>
+        <v>0.7114559</v>
       </c>
       <c r="R91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S91" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T91" t="n">
-        <v>0.724926386363636</v>
+        <v>0.743804104545455</v>
       </c>
       <c r="U91" t="n">
-        <v>0.7137858</v>
+        <v>0.7700165</v>
       </c>
       <c r="V91" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W91" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X91" t="n">
-        <v>0.769868092272727</v>
+        <v>0.744970413636364</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.8170428</v>
+        <v>0.8121096</v>
       </c>
       <c r="Z91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA91" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB91" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="AC91" t="n">
-        <v>69.4</v>
+        <v>65.6</v>
       </c>
     </row>
   </sheetData>
